--- a/tests/VN9999 - Project Name_Topline - May 15.xlsx
+++ b/tests/VN9999 - Project Name_Topline - May 15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/723e82af93afbbb8/DevZone/PyPackages/packaging_dpkits/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{08E24162-9803-4D66-A0AB-AC0C138F67F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{733BDC29-9C2A-415F-99E5-6F91D61CCB7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6A0D92-1BE0-48E7-A834-44E780A35CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,16 +1057,46 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1074,11 +1104,23 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1112,6 +1154,33 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1133,75 +1202,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1534,8 +1534,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Table_Count'!B3" display="Table_Count" xr:uid="{3CA3F63D-8219-47AB-BE17-A40A037CD2C9}"/>
-    <hyperlink ref="B3" location="'Table_Pct'!B3" display="Table_Pct" xr:uid="{C63F1B80-AB1C-49E6-9DD2-FA09A0AB8C54}"/>
+    <hyperlink ref="B2" location="'Table_Count'!B3" display="Table_Count" xr:uid="{3C395C9A-CD5C-4051-9A1A-DC90E7103DBD}"/>
+    <hyperlink ref="B3" location="'Table_Pct'!B3" display="Table_Pct" xr:uid="{5ABFD509-DF3A-4285-A555-37B6C9377D2A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1549,7 +1549,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1561,91 +1561,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" hidden="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1730,226 +1730,226 @@
       <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="75" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="77"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="76"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="80" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="80" t="s">
+      <c r="I4" s="78"/>
+      <c r="J4" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="80" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="80" t="s">
+      <c r="M4" s="78"/>
+      <c r="N4" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="80" t="s">
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="79"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="78" t="s">
+      <c r="G5" s="81"/>
+      <c r="H5" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78" t="s">
+      <c r="I5" s="80"/>
+      <c r="J5" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78" t="s">
+      <c r="K5" s="80"/>
+      <c r="L5" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78" t="s">
+      <c r="M5" s="80"/>
+      <c r="N5" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78" t="s">
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="79"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="82"/>
     </row>
     <row r="6" spans="1:29" ht="45">
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="62" t="s">
+      <c r="P6" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="62" t="s">
+      <c r="Q6" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="62" t="s">
+      <c r="R6" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="S6" s="62" t="s">
+      <c r="S6" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="62" t="s">
+      <c r="T6" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="60" t="s">
+      <c r="V6" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="62" t="s">
+      <c r="W6" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="X6" s="62" t="s">
+      <c r="X6" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="Y6" s="62" t="s">
+      <c r="Y6" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="Z6" s="62" t="s">
+      <c r="Z6" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="62" t="s">
+      <c r="AA6" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="AB6" s="62" t="s">
+      <c r="AB6" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AC6" s="62" t="s">
+      <c r="AC6" s="85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="58">
         <v>709</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="66">
         <v>307</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="58">
         <v>286</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="66">
         <v>122</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="58">
         <v>283</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="66">
         <v>122</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="58">
         <v>140</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="66">
         <v>63</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="58">
         <v>0</v>
       </c>
       <c r="O7" s="3">
@@ -1970,10 +1970,10 @@
       <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="52">
-        <v>0</v>
-      </c>
-      <c r="V7" s="44">
+      <c r="U7" s="66">
+        <v>0</v>
+      </c>
+      <c r="V7" s="58">
         <v>0</v>
       </c>
       <c r="W7" s="3">
@@ -1999,42 +1999,42 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="84"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="45">
-        <v>0</v>
-      </c>
-      <c r="G8" s="53">
-        <v>0</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0</v>
-      </c>
-      <c r="I8" s="53">
-        <v>0</v>
-      </c>
-      <c r="J8" s="45">
-        <v>0</v>
-      </c>
-      <c r="K8" s="53">
-        <v>0</v>
-      </c>
-      <c r="L8" s="45">
-        <v>0</v>
-      </c>
-      <c r="M8" s="53">
-        <v>0</v>
-      </c>
-      <c r="N8" s="45"/>
+      <c r="F8" s="59">
+        <v>0</v>
+      </c>
+      <c r="G8" s="67">
+        <v>0</v>
+      </c>
+      <c r="H8" s="59">
+        <v>0</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0</v>
+      </c>
+      <c r="J8" s="59">
+        <v>0</v>
+      </c>
+      <c r="K8" s="67">
+        <v>0</v>
+      </c>
+      <c r="L8" s="59">
+        <v>0</v>
+      </c>
+      <c r="M8" s="67">
+        <v>0</v>
+      </c>
+      <c r="N8" s="59"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5">
         <v>0</v>
@@ -2049,8 +2049,8 @@
         <v>0</v>
       </c>
       <c r="T8" s="5"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="45"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="59"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5">
         <v>0</v>
@@ -2068,42 +2068,42 @@
       <c r="AC8" s="6"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="84"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="59">
         <v>99</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="67">
         <v>40</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="59">
         <v>44</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="67">
         <v>22</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="59">
         <v>25</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="67">
         <v>11</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="59">
         <v>30</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="67">
         <v>7</v>
       </c>
-      <c r="N9" s="45"/>
+      <c r="N9" s="59"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5">
         <v>24</v>
@@ -2118,8 +2118,8 @@
         <v>31</v>
       </c>
       <c r="T9" s="5"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="45"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="59"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5">
         <v>10</v>
@@ -2137,42 +2137,42 @@
       <c r="AC9" s="6"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="84"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="59">
         <v>123</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="67">
         <v>65</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="59">
         <v>53</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="67">
         <v>21</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="59">
         <v>41</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="67">
         <v>25</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="59">
         <v>29</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="67">
         <v>19</v>
       </c>
-      <c r="N10" s="45"/>
+      <c r="N10" s="59"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5">
         <v>30</v>
@@ -2187,8 +2187,8 @@
         <v>29</v>
       </c>
       <c r="T10" s="5"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="45"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="59"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5">
         <v>21</v>
@@ -2206,42 +2206,42 @@
       <c r="AC10" s="6"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="84"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="59">
         <v>465</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="67">
         <v>193</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="59">
         <v>179</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="67">
         <v>74</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="59">
         <v>208</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="67">
         <v>84</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="59">
         <v>78</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="67">
         <v>35</v>
       </c>
-      <c r="N11" s="45"/>
+      <c r="N11" s="59"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5">
         <v>96</v>
@@ -2256,8 +2256,8 @@
         <v>94</v>
       </c>
       <c r="T11" s="5"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="45"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="59"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5">
         <v>46</v>
@@ -2275,42 +2275,42 @@
       <c r="AC11" s="6"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="84"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="59">
         <v>22</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="67">
         <v>9</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="59">
         <v>10</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="67">
         <v>5</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="59">
         <v>9</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="67">
         <v>2</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="59">
         <v>3</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="67">
         <v>2</v>
       </c>
-      <c r="N12" s="45"/>
+      <c r="N12" s="59"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5">
         <v>2</v>
@@ -2325,8 +2325,8 @@
         <v>5</v>
       </c>
       <c r="T12" s="5"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="45"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="59"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5">
         <v>0</v>
@@ -2344,42 +2344,42 @@
       <c r="AC12" s="6"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="46">
-        <v>0</v>
-      </c>
-      <c r="G13" s="54">
-        <v>0</v>
-      </c>
-      <c r="H13" s="46">
-        <v>0</v>
-      </c>
-      <c r="I13" s="54">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46">
-        <v>0</v>
-      </c>
-      <c r="K13" s="54">
-        <v>0</v>
-      </c>
-      <c r="L13" s="46">
-        <v>0</v>
-      </c>
-      <c r="M13" s="54">
-        <v>0</v>
-      </c>
-      <c r="N13" s="46"/>
+      <c r="F13" s="60">
+        <v>0</v>
+      </c>
+      <c r="G13" s="68">
+        <v>0</v>
+      </c>
+      <c r="H13" s="60">
+        <v>0</v>
+      </c>
+      <c r="I13" s="68">
+        <v>0</v>
+      </c>
+      <c r="J13" s="60">
+        <v>0</v>
+      </c>
+      <c r="K13" s="68">
+        <v>0</v>
+      </c>
+      <c r="L13" s="60">
+        <v>0</v>
+      </c>
+      <c r="M13" s="68">
+        <v>0</v>
+      </c>
+      <c r="N13" s="60"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7">
         <v>0</v>
@@ -2394,8 +2394,8 @@
         <v>0</v>
       </c>
       <c r="T13" s="7"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="46"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="60"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7">
         <v>0</v>
@@ -2413,46 +2413,46 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="58">
         <v>695</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="66">
         <v>303</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="58">
         <v>277</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="66">
         <v>119</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="58">
         <v>282</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="66">
         <v>121</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="58">
         <v>136</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="66">
         <v>63</v>
       </c>
-      <c r="N14" s="44">
+      <c r="N14" s="58">
         <v>0</v>
       </c>
       <c r="O14" s="3">
@@ -2473,10 +2473,10 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="52">
-        <v>0</v>
-      </c>
-      <c r="V14" s="44">
+      <c r="U14" s="66">
+        <v>0</v>
+      </c>
+      <c r="V14" s="58">
         <v>0</v>
       </c>
       <c r="W14" s="3">
@@ -2502,529 +2502,529 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="85"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="61">
         <v>1.496402877697842</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="69">
         <v>1.438943894389439</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="61">
         <v>1.4332129963898921</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="69">
         <v>1.3613445378151261</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="61">
         <v>1.602836879432624</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="69">
         <v>1.5619834710743801</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="61">
         <v>1.404411764705882</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="69">
         <v>1.3492063492063491</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16">
+      <c r="N15" s="61"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24">
         <v>1.3783783783783781</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="24">
         <v>1.458149779735683</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="24">
         <v>1.4846625766871171</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="24">
         <v>1.6751592356687901</v>
       </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16">
+      <c r="T15" s="24"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24">
         <v>1.27027027027027</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y15" s="24">
         <v>1.365591397849462</v>
       </c>
-      <c r="Z15" s="16">
+      <c r="Z15" s="24">
         <v>1.580246913580247</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AA15" s="24">
         <v>1.581818181818182</v>
       </c>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="17"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="25"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="85"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="61">
         <v>0.61879892866160036</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="69">
         <v>0.58857911194156609</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="61">
         <v>0.61389242918697939</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="69">
         <v>0.56345021341692003</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="61">
         <v>0.61278702475639968</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="69">
         <v>0.60404969419564425</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="61">
         <v>0.61317240002862394</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="69">
         <v>0.57245172098812258</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16">
+      <c r="N16" s="61"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24">
         <v>0.52690090466694883</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="24">
         <v>0.64613357514974556</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="24">
         <v>0.58114221523788068</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="24">
         <v>0.66232458257759952</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16">
+      <c r="T16" s="24"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24">
         <v>0.44713080116517462</v>
       </c>
-      <c r="Y16" s="16">
+      <c r="Y16" s="24">
         <v>0.52719409503354853</v>
       </c>
-      <c r="Z16" s="16">
+      <c r="Z16" s="24">
         <v>0.66828507260869208</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AA16" s="24">
         <v>0.65802479664267444</v>
       </c>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="17"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="25"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="94"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="48">
-        <v>1</v>
-      </c>
-      <c r="G17" s="56">
-        <v>1</v>
-      </c>
-      <c r="H17" s="48">
-        <v>1</v>
-      </c>
-      <c r="I17" s="56">
-        <v>1</v>
-      </c>
-      <c r="J17" s="48">
-        <v>1</v>
-      </c>
-      <c r="K17" s="56">
-        <v>1</v>
-      </c>
-      <c r="L17" s="48">
-        <v>1</v>
-      </c>
-      <c r="M17" s="56">
-        <v>1</v>
-      </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>1</v>
-      </c>
-      <c r="R17" s="25">
-        <v>1</v>
-      </c>
-      <c r="S17" s="25">
-        <v>1</v>
-      </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="26"/>
+      <c r="F17" s="62">
+        <v>1</v>
+      </c>
+      <c r="G17" s="70">
+        <v>1</v>
+      </c>
+      <c r="H17" s="62">
+        <v>1</v>
+      </c>
+      <c r="I17" s="70">
+        <v>1</v>
+      </c>
+      <c r="J17" s="62">
+        <v>1</v>
+      </c>
+      <c r="K17" s="70">
+        <v>1</v>
+      </c>
+      <c r="L17" s="62">
+        <v>1</v>
+      </c>
+      <c r="M17" s="70">
+        <v>1</v>
+      </c>
+      <c r="N17" s="62"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>1</v>
+      </c>
+      <c r="R17" s="37">
+        <v>1</v>
+      </c>
+      <c r="S17" s="37">
+        <v>1</v>
+      </c>
+      <c r="T17" s="37"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="38"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="94"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="62">
         <v>4</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="70">
         <v>3</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="62">
         <v>4</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="70">
         <v>3</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="62">
         <v>3</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="70">
         <v>3</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="62">
         <v>4</v>
       </c>
-      <c r="M18" s="56">
+      <c r="M18" s="70">
         <v>3</v>
       </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25">
+      <c r="N18" s="62"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37">
         <v>3</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="37">
         <v>4</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="37">
         <v>3</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18" s="37">
         <v>4</v>
       </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25">
+      <c r="T18" s="37"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37">
         <v>2</v>
       </c>
-      <c r="Y18" s="25">
+      <c r="Y18" s="37">
         <v>3</v>
       </c>
-      <c r="Z18" s="25">
+      <c r="Z18" s="37">
         <v>3</v>
       </c>
-      <c r="AA18" s="25">
+      <c r="AA18" s="37">
         <v>3</v>
       </c>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="26"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="38"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="94"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="48">
-        <v>1</v>
-      </c>
-      <c r="G19" s="56">
-        <v>1</v>
-      </c>
-      <c r="H19" s="48">
-        <v>1</v>
-      </c>
-      <c r="I19" s="56">
-        <v>1</v>
-      </c>
-      <c r="J19" s="48">
-        <v>1</v>
-      </c>
-      <c r="K19" s="56">
-        <v>1</v>
-      </c>
-      <c r="L19" s="48">
-        <v>1</v>
-      </c>
-      <c r="M19" s="56">
-        <v>1</v>
-      </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>1</v>
-      </c>
-      <c r="R19" s="25">
-        <v>1</v>
-      </c>
-      <c r="S19" s="25">
-        <v>1</v>
-      </c>
-      <c r="T19" s="25"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="26"/>
+      <c r="F19" s="62">
+        <v>1</v>
+      </c>
+      <c r="G19" s="70">
+        <v>1</v>
+      </c>
+      <c r="H19" s="62">
+        <v>1</v>
+      </c>
+      <c r="I19" s="70">
+        <v>1</v>
+      </c>
+      <c r="J19" s="62">
+        <v>1</v>
+      </c>
+      <c r="K19" s="70">
+        <v>1</v>
+      </c>
+      <c r="L19" s="62">
+        <v>1</v>
+      </c>
+      <c r="M19" s="70">
+        <v>1</v>
+      </c>
+      <c r="N19" s="62"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>1</v>
+      </c>
+      <c r="R19" s="37">
+        <v>1</v>
+      </c>
+      <c r="S19" s="37">
+        <v>1</v>
+      </c>
+      <c r="T19" s="37"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="38"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="94"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="48">
-        <v>1</v>
-      </c>
-      <c r="G20" s="56">
-        <v>1</v>
-      </c>
-      <c r="H20" s="48">
-        <v>1</v>
-      </c>
-      <c r="I20" s="56">
-        <v>1</v>
-      </c>
-      <c r="J20" s="48">
+      <c r="F20" s="62">
+        <v>1</v>
+      </c>
+      <c r="G20" s="70">
+        <v>1</v>
+      </c>
+      <c r="H20" s="62">
+        <v>1</v>
+      </c>
+      <c r="I20" s="70">
+        <v>1</v>
+      </c>
+      <c r="J20" s="62">
         <v>2</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="70">
         <v>2</v>
       </c>
-      <c r="L20" s="48">
-        <v>1</v>
-      </c>
-      <c r="M20" s="56">
-        <v>1</v>
-      </c>
-      <c r="N20" s="48"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>1</v>
-      </c>
-      <c r="R20" s="25">
-        <v>1</v>
-      </c>
-      <c r="S20" s="25">
+      <c r="L20" s="62">
+        <v>1</v>
+      </c>
+      <c r="M20" s="70">
+        <v>1</v>
+      </c>
+      <c r="N20" s="62"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="37">
+        <v>1</v>
+      </c>
+      <c r="R20" s="37">
+        <v>1</v>
+      </c>
+      <c r="S20" s="37">
         <v>2</v>
       </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="26"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="38"/>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="95"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="63">
         <v>2</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="71">
         <v>2</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="63">
         <v>2</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="71">
         <v>2</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="63">
         <v>2</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="71">
         <v>2</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="63">
         <v>2</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="71">
         <v>2</v>
       </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30">
+      <c r="N21" s="63"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44">
         <v>2</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="44">
         <v>2</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="44">
         <v>2</v>
       </c>
-      <c r="S21" s="30">
+      <c r="S21" s="44">
         <v>2</v>
       </c>
-      <c r="T21" s="30"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30">
+      <c r="T21" s="44"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44">
         <v>2</v>
       </c>
-      <c r="Y21" s="30">
+      <c r="Y21" s="44">
         <v>2</v>
       </c>
-      <c r="Z21" s="30">
+      <c r="Z21" s="44">
         <v>2</v>
       </c>
-      <c r="AA21" s="30">
+      <c r="AA21" s="44">
         <v>2</v>
       </c>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="31"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="45"/>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="58">
         <v>709</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="66">
         <v>307</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="58">
         <v>286</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="66">
         <v>122</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="58">
         <v>283</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="66">
         <v>122</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="58">
         <v>140</v>
       </c>
-      <c r="M22" s="52">
+      <c r="M22" s="66">
         <v>63</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="58">
         <v>0</v>
       </c>
       <c r="O22" s="3">
@@ -3045,10 +3045,10 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="52">
-        <v>0</v>
-      </c>
-      <c r="V22" s="44">
+      <c r="U22" s="66">
+        <v>0</v>
+      </c>
+      <c r="V22" s="58">
         <v>0</v>
       </c>
       <c r="W22" s="3">
@@ -3074,42 +3074,42 @@
       </c>
     </row>
     <row r="23" spans="1:29">
-      <c r="A23" s="84"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="59">
         <v>707</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="67">
         <v>306</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="59">
         <v>285</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="67">
         <v>122</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="59">
         <v>283</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="67">
         <v>122</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="59">
         <v>139</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="67">
         <v>62</v>
       </c>
-      <c r="N23" s="45"/>
+      <c r="N23" s="59"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5">
         <v>152</v>
@@ -3124,8 +3124,8 @@
         <v>159</v>
       </c>
       <c r="T23" s="5"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="45"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="59"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5">
         <v>77</v>
@@ -3143,42 +3143,42 @@
       <c r="AC23" s="6"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="A24" s="84"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="59">
         <v>709</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="67">
         <v>307</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="59">
         <v>286</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="67">
         <v>122</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="59">
         <v>283</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="67">
         <v>122</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="59">
         <v>140</v>
       </c>
-      <c r="M24" s="53">
+      <c r="M24" s="67">
         <v>63</v>
       </c>
-      <c r="N24" s="45"/>
+      <c r="N24" s="59"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5">
         <v>152</v>
@@ -3193,8 +3193,8 @@
         <v>159</v>
       </c>
       <c r="T24" s="5"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="45"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="59"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5">
         <v>77</v>
@@ -3212,42 +3212,42 @@
       <c r="AC24" s="6"/>
     </row>
     <row r="25" spans="1:29">
-      <c r="A25" s="84"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="59">
         <v>708</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="67">
         <v>307</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="59">
         <v>285</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="67">
         <v>122</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="59">
         <v>283</v>
       </c>
-      <c r="K25" s="53">
+      <c r="K25" s="67">
         <v>122</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="59">
         <v>140</v>
       </c>
-      <c r="M25" s="53">
+      <c r="M25" s="67">
         <v>63</v>
       </c>
-      <c r="N25" s="45"/>
+      <c r="N25" s="59"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5">
         <v>152</v>
@@ -3262,8 +3262,8 @@
         <v>159</v>
       </c>
       <c r="T25" s="5"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="45"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="59"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5">
         <v>77</v>
@@ -3281,42 +3281,42 @@
       <c r="AC25" s="6"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="84"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="45">
-        <v>0</v>
-      </c>
-      <c r="G26" s="53">
-        <v>0</v>
-      </c>
-      <c r="H26" s="45">
-        <v>0</v>
-      </c>
-      <c r="I26" s="53">
-        <v>0</v>
-      </c>
-      <c r="J26" s="45">
-        <v>0</v>
-      </c>
-      <c r="K26" s="53">
-        <v>0</v>
-      </c>
-      <c r="L26" s="45">
-        <v>0</v>
-      </c>
-      <c r="M26" s="53">
-        <v>0</v>
-      </c>
-      <c r="N26" s="45"/>
+      <c r="F26" s="59">
+        <v>0</v>
+      </c>
+      <c r="G26" s="67">
+        <v>0</v>
+      </c>
+      <c r="H26" s="59">
+        <v>0</v>
+      </c>
+      <c r="I26" s="67">
+        <v>0</v>
+      </c>
+      <c r="J26" s="59">
+        <v>0</v>
+      </c>
+      <c r="K26" s="67">
+        <v>0</v>
+      </c>
+      <c r="L26" s="59">
+        <v>0</v>
+      </c>
+      <c r="M26" s="67">
+        <v>0</v>
+      </c>
+      <c r="N26" s="59"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5">
         <v>0</v>
@@ -3331,8 +3331,8 @@
         <v>0</v>
       </c>
       <c r="T26" s="5"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="45"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="59"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5">
         <v>0</v>
@@ -3350,42 +3350,42 @@
       <c r="AC26" s="6"/>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="84"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="10" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="45">
-        <v>0</v>
-      </c>
-      <c r="G27" s="53">
-        <v>0</v>
-      </c>
-      <c r="H27" s="45">
-        <v>0</v>
-      </c>
-      <c r="I27" s="53">
-        <v>0</v>
-      </c>
-      <c r="J27" s="45">
-        <v>0</v>
-      </c>
-      <c r="K27" s="53">
-        <v>0</v>
-      </c>
-      <c r="L27" s="45">
-        <v>0</v>
-      </c>
-      <c r="M27" s="53">
-        <v>0</v>
-      </c>
-      <c r="N27" s="45"/>
+      <c r="F27" s="59">
+        <v>0</v>
+      </c>
+      <c r="G27" s="67">
+        <v>0</v>
+      </c>
+      <c r="H27" s="59">
+        <v>0</v>
+      </c>
+      <c r="I27" s="67">
+        <v>0</v>
+      </c>
+      <c r="J27" s="59">
+        <v>0</v>
+      </c>
+      <c r="K27" s="67">
+        <v>0</v>
+      </c>
+      <c r="L27" s="59">
+        <v>0</v>
+      </c>
+      <c r="M27" s="67">
+        <v>0</v>
+      </c>
+      <c r="N27" s="59"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5">
         <v>0</v>
@@ -3400,8 +3400,8 @@
         <v>0</v>
       </c>
       <c r="T27" s="5"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="45"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="59"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5">
         <v>0</v>
@@ -3419,42 +3419,42 @@
       <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="1:29">
-      <c r="A28" s="84"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="10" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="59">
         <v>630</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="67">
         <v>269</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="59">
         <v>259</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I28" s="67">
         <v>108</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="59">
         <v>245</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="67">
         <v>104</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="59">
         <v>126</v>
       </c>
-      <c r="M28" s="53">
+      <c r="M28" s="67">
         <v>57</v>
       </c>
-      <c r="N28" s="45"/>
+      <c r="N28" s="59"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5">
         <v>129</v>
@@ -3469,8 +3469,8 @@
         <v>138</v>
       </c>
       <c r="T28" s="5"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="45"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="59"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5">
         <v>68</v>
@@ -3488,42 +3488,42 @@
       <c r="AC28" s="6"/>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="84"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="45">
-        <v>0</v>
-      </c>
-      <c r="G29" s="53">
-        <v>0</v>
-      </c>
-      <c r="H29" s="45">
-        <v>0</v>
-      </c>
-      <c r="I29" s="53">
-        <v>0</v>
-      </c>
-      <c r="J29" s="45">
-        <v>0</v>
-      </c>
-      <c r="K29" s="53">
-        <v>0</v>
-      </c>
-      <c r="L29" s="45">
-        <v>0</v>
-      </c>
-      <c r="M29" s="53">
-        <v>0</v>
-      </c>
-      <c r="N29" s="45"/>
+      <c r="F29" s="59">
+        <v>0</v>
+      </c>
+      <c r="G29" s="67">
+        <v>0</v>
+      </c>
+      <c r="H29" s="59">
+        <v>0</v>
+      </c>
+      <c r="I29" s="67">
+        <v>0</v>
+      </c>
+      <c r="J29" s="59">
+        <v>0</v>
+      </c>
+      <c r="K29" s="67">
+        <v>0</v>
+      </c>
+      <c r="L29" s="59">
+        <v>0</v>
+      </c>
+      <c r="M29" s="67">
+        <v>0</v>
+      </c>
+      <c r="N29" s="59"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5">
         <v>0</v>
@@ -3538,8 +3538,8 @@
         <v>0</v>
       </c>
       <c r="T29" s="5"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="45"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="59"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5">
         <v>0</v>
@@ -3557,42 +3557,42 @@
       <c r="AC29" s="6"/>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="84"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="10" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="45">
-        <v>0</v>
-      </c>
-      <c r="G30" s="53">
-        <v>0</v>
-      </c>
-      <c r="H30" s="45">
-        <v>0</v>
-      </c>
-      <c r="I30" s="53">
-        <v>0</v>
-      </c>
-      <c r="J30" s="45">
-        <v>0</v>
-      </c>
-      <c r="K30" s="53">
-        <v>0</v>
-      </c>
-      <c r="L30" s="45">
-        <v>0</v>
-      </c>
-      <c r="M30" s="53">
-        <v>0</v>
-      </c>
-      <c r="N30" s="45"/>
+      <c r="F30" s="59">
+        <v>0</v>
+      </c>
+      <c r="G30" s="67">
+        <v>0</v>
+      </c>
+      <c r="H30" s="59">
+        <v>0</v>
+      </c>
+      <c r="I30" s="67">
+        <v>0</v>
+      </c>
+      <c r="J30" s="59">
+        <v>0</v>
+      </c>
+      <c r="K30" s="67">
+        <v>0</v>
+      </c>
+      <c r="L30" s="59">
+        <v>0</v>
+      </c>
+      <c r="M30" s="67">
+        <v>0</v>
+      </c>
+      <c r="N30" s="59"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5">
         <v>0</v>
@@ -3607,8 +3607,8 @@
         <v>0</v>
       </c>
       <c r="T30" s="5"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="45"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="59"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5">
         <v>0</v>
@@ -3626,42 +3626,42 @@
       <c r="AC30" s="6"/>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="84"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="10" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="59">
         <v>109</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="67">
         <v>33</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="59">
         <v>47</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="67">
         <v>12</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="59">
         <v>27</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="67">
         <v>7</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="59">
         <v>35</v>
       </c>
-      <c r="M31" s="53">
+      <c r="M31" s="67">
         <v>14</v>
       </c>
-      <c r="N31" s="45"/>
+      <c r="N31" s="59"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5">
         <v>24</v>
@@ -3676,8 +3676,8 @@
         <v>22</v>
       </c>
       <c r="T31" s="5"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="45"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="59"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5">
         <v>7</v>
@@ -3695,42 +3695,42 @@
       <c r="AC31" s="6"/>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="84"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="59">
         <v>295</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="67">
         <v>120</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="59">
         <v>106</v>
       </c>
-      <c r="I32" s="53">
+      <c r="I32" s="67">
         <v>43</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="59">
         <v>145</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="67">
         <v>61</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="59">
         <v>44</v>
       </c>
-      <c r="M32" s="53">
+      <c r="M32" s="67">
         <v>16</v>
       </c>
-      <c r="N32" s="45"/>
+      <c r="N32" s="59"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5">
         <v>49</v>
@@ -3745,8 +3745,8 @@
         <v>71</v>
       </c>
       <c r="T32" s="5"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="45"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="59"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5">
         <v>34</v>
@@ -3764,42 +3764,42 @@
       <c r="AC32" s="6"/>
     </row>
     <row r="33" spans="1:29">
-      <c r="A33" s="84"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="10" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="59">
         <v>49</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G33" s="67">
         <v>23</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="59">
         <v>16</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="67">
         <v>7</v>
       </c>
-      <c r="J33" s="45">
+      <c r="J33" s="59">
         <v>21</v>
       </c>
-      <c r="K33" s="53">
+      <c r="K33" s="67">
         <v>10</v>
       </c>
-      <c r="L33" s="45">
+      <c r="L33" s="59">
         <v>12</v>
       </c>
-      <c r="M33" s="53">
+      <c r="M33" s="67">
         <v>6</v>
       </c>
-      <c r="N33" s="45"/>
+      <c r="N33" s="59"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5">
         <v>9</v>
@@ -3814,8 +3814,8 @@
         <v>8</v>
       </c>
       <c r="T33" s="5"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="45"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="59"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5">
         <v>7</v>
@@ -3833,42 +3833,42 @@
       <c r="AC33" s="6"/>
     </row>
     <row r="34" spans="1:29">
-      <c r="A34" s="84"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="10" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="59">
         <v>3</v>
       </c>
-      <c r="G34" s="53">
-        <v>0</v>
-      </c>
-      <c r="H34" s="45">
-        <v>0</v>
-      </c>
-      <c r="I34" s="53">
-        <v>0</v>
-      </c>
-      <c r="J34" s="45">
-        <v>0</v>
-      </c>
-      <c r="K34" s="53">
-        <v>0</v>
-      </c>
-      <c r="L34" s="45">
+      <c r="G34" s="67">
+        <v>0</v>
+      </c>
+      <c r="H34" s="59">
+        <v>0</v>
+      </c>
+      <c r="I34" s="67">
+        <v>0</v>
+      </c>
+      <c r="J34" s="59">
+        <v>0</v>
+      </c>
+      <c r="K34" s="67">
+        <v>0</v>
+      </c>
+      <c r="L34" s="59">
         <v>3</v>
       </c>
-      <c r="M34" s="53">
-        <v>0</v>
-      </c>
-      <c r="N34" s="45"/>
+      <c r="M34" s="67">
+        <v>0</v>
+      </c>
+      <c r="N34" s="59"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5">
         <v>0</v>
@@ -3883,8 +3883,8 @@
         <v>1</v>
       </c>
       <c r="T34" s="5"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="45"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="59"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5">
         <v>0</v>
@@ -3902,42 +3902,42 @@
       <c r="AC34" s="6"/>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="92"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="46">
-        <v>0</v>
-      </c>
-      <c r="G35" s="54">
-        <v>0</v>
-      </c>
-      <c r="H35" s="46">
-        <v>0</v>
-      </c>
-      <c r="I35" s="54">
-        <v>0</v>
-      </c>
-      <c r="J35" s="46">
-        <v>0</v>
-      </c>
-      <c r="K35" s="54">
-        <v>0</v>
-      </c>
-      <c r="L35" s="46">
-        <v>0</v>
-      </c>
-      <c r="M35" s="54">
-        <v>0</v>
-      </c>
-      <c r="N35" s="46"/>
+      <c r="F35" s="60">
+        <v>0</v>
+      </c>
+      <c r="G35" s="68">
+        <v>0</v>
+      </c>
+      <c r="H35" s="60">
+        <v>0</v>
+      </c>
+      <c r="I35" s="68">
+        <v>0</v>
+      </c>
+      <c r="J35" s="60">
+        <v>0</v>
+      </c>
+      <c r="K35" s="68">
+        <v>0</v>
+      </c>
+      <c r="L35" s="60">
+        <v>0</v>
+      </c>
+      <c r="M35" s="68">
+        <v>0</v>
+      </c>
+      <c r="N35" s="60"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7">
         <v>0</v>
@@ -3952,8 +3952,8 @@
         <v>0</v>
       </c>
       <c r="T35" s="7"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="46"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="60"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7">
         <v>0</v>
@@ -3971,46 +3971,46 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="58">
         <v>707</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="66">
         <v>306</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="58">
         <v>285</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="66">
         <v>122</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="58">
         <v>283</v>
       </c>
-      <c r="K36" s="52">
+      <c r="K36" s="66">
         <v>122</v>
       </c>
-      <c r="L36" s="44">
+      <c r="L36" s="58">
         <v>139</v>
       </c>
-      <c r="M36" s="52">
+      <c r="M36" s="66">
         <v>62</v>
       </c>
-      <c r="N36" s="44">
+      <c r="N36" s="58">
         <v>0</v>
       </c>
       <c r="O36" s="3">
@@ -4031,10 +4031,10 @@
       <c r="T36" s="3">
         <v>0</v>
       </c>
-      <c r="U36" s="52">
-        <v>0</v>
-      </c>
-      <c r="V36" s="44">
+      <c r="U36" s="66">
+        <v>0</v>
+      </c>
+      <c r="V36" s="58">
         <v>0</v>
       </c>
       <c r="W36" s="3">
@@ -4060,42 +4060,42 @@
       </c>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="84"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="45">
-        <v>1</v>
-      </c>
-      <c r="G37" s="53">
-        <v>0</v>
-      </c>
-      <c r="H37" s="45">
-        <v>1</v>
-      </c>
-      <c r="I37" s="53">
-        <v>0</v>
-      </c>
-      <c r="J37" s="45">
-        <v>0</v>
-      </c>
-      <c r="K37" s="53">
-        <v>0</v>
-      </c>
-      <c r="L37" s="45">
-        <v>0</v>
-      </c>
-      <c r="M37" s="53">
-        <v>0</v>
-      </c>
-      <c r="N37" s="45"/>
+      <c r="F37" s="59">
+        <v>1</v>
+      </c>
+      <c r="G37" s="67">
+        <v>0</v>
+      </c>
+      <c r="H37" s="59">
+        <v>1</v>
+      </c>
+      <c r="I37" s="67">
+        <v>0</v>
+      </c>
+      <c r="J37" s="59">
+        <v>0</v>
+      </c>
+      <c r="K37" s="67">
+        <v>0</v>
+      </c>
+      <c r="L37" s="59">
+        <v>0</v>
+      </c>
+      <c r="M37" s="67">
+        <v>0</v>
+      </c>
+      <c r="N37" s="59"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5">
         <v>0</v>
@@ -4110,8 +4110,8 @@
         <v>0</v>
       </c>
       <c r="T37" s="5"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="45"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="59"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5">
         <v>0</v>
@@ -4129,42 +4129,42 @@
       <c r="AC37" s="6"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="84"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="10" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="45">
-        <v>1</v>
-      </c>
-      <c r="G38" s="53">
-        <v>0</v>
-      </c>
-      <c r="H38" s="45">
-        <v>1</v>
-      </c>
-      <c r="I38" s="53">
-        <v>0</v>
-      </c>
-      <c r="J38" s="45">
-        <v>0</v>
-      </c>
-      <c r="K38" s="53">
-        <v>0</v>
-      </c>
-      <c r="L38" s="45">
-        <v>0</v>
-      </c>
-      <c r="M38" s="53">
-        <v>0</v>
-      </c>
-      <c r="N38" s="45"/>
+      <c r="F38" s="59">
+        <v>1</v>
+      </c>
+      <c r="G38" s="67">
+        <v>0</v>
+      </c>
+      <c r="H38" s="59">
+        <v>1</v>
+      </c>
+      <c r="I38" s="67">
+        <v>0</v>
+      </c>
+      <c r="J38" s="59">
+        <v>0</v>
+      </c>
+      <c r="K38" s="67">
+        <v>0</v>
+      </c>
+      <c r="L38" s="59">
+        <v>0</v>
+      </c>
+      <c r="M38" s="67">
+        <v>0</v>
+      </c>
+      <c r="N38" s="59"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5">
         <v>0</v>
@@ -4179,8 +4179,8 @@
         <v>0</v>
       </c>
       <c r="T38" s="5"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="45"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="59"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5">
         <v>0</v>
@@ -4198,42 +4198,42 @@
       <c r="AC38" s="6"/>
     </row>
     <row r="39" spans="1:29">
-      <c r="A39" s="84"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="10" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="45">
-        <v>0</v>
-      </c>
-      <c r="G39" s="53">
-        <v>0</v>
-      </c>
-      <c r="H39" s="45">
-        <v>0</v>
-      </c>
-      <c r="I39" s="53">
-        <v>0</v>
-      </c>
-      <c r="J39" s="45">
-        <v>0</v>
-      </c>
-      <c r="K39" s="53">
-        <v>0</v>
-      </c>
-      <c r="L39" s="45">
-        <v>0</v>
-      </c>
-      <c r="M39" s="53">
-        <v>0</v>
-      </c>
-      <c r="N39" s="45"/>
+      <c r="F39" s="59">
+        <v>0</v>
+      </c>
+      <c r="G39" s="67">
+        <v>0</v>
+      </c>
+      <c r="H39" s="59">
+        <v>0</v>
+      </c>
+      <c r="I39" s="67">
+        <v>0</v>
+      </c>
+      <c r="J39" s="59">
+        <v>0</v>
+      </c>
+      <c r="K39" s="67">
+        <v>0</v>
+      </c>
+      <c r="L39" s="59">
+        <v>0</v>
+      </c>
+      <c r="M39" s="67">
+        <v>0</v>
+      </c>
+      <c r="N39" s="59"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5">
         <v>0</v>
@@ -4248,8 +4248,8 @@
         <v>0</v>
       </c>
       <c r="T39" s="5"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="45"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="59"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5">
         <v>0</v>
@@ -4267,42 +4267,42 @@
       <c r="AC39" s="6"/>
     </row>
     <row r="40" spans="1:29">
-      <c r="A40" s="84"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="10" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="45">
-        <v>1</v>
-      </c>
-      <c r="G40" s="53">
-        <v>0</v>
-      </c>
-      <c r="H40" s="45">
-        <v>0</v>
-      </c>
-      <c r="I40" s="53">
-        <v>0</v>
-      </c>
-      <c r="J40" s="45">
-        <v>0</v>
-      </c>
-      <c r="K40" s="53">
-        <v>0</v>
-      </c>
-      <c r="L40" s="45">
-        <v>1</v>
-      </c>
-      <c r="M40" s="53">
-        <v>0</v>
-      </c>
-      <c r="N40" s="45"/>
+      <c r="F40" s="59">
+        <v>1</v>
+      </c>
+      <c r="G40" s="67">
+        <v>0</v>
+      </c>
+      <c r="H40" s="59">
+        <v>0</v>
+      </c>
+      <c r="I40" s="67">
+        <v>0</v>
+      </c>
+      <c r="J40" s="59">
+        <v>0</v>
+      </c>
+      <c r="K40" s="67">
+        <v>0</v>
+      </c>
+      <c r="L40" s="59">
+        <v>1</v>
+      </c>
+      <c r="M40" s="67">
+        <v>0</v>
+      </c>
+      <c r="N40" s="59"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5">
         <v>0</v>
@@ -4317,8 +4317,8 @@
         <v>0</v>
       </c>
       <c r="T40" s="5"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="45"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="59"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5">
         <v>0</v>
@@ -4336,42 +4336,42 @@
       <c r="AC40" s="6"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="84"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="10" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="59">
         <v>5</v>
       </c>
-      <c r="G41" s="53">
-        <v>1</v>
-      </c>
-      <c r="H41" s="45">
-        <v>1</v>
-      </c>
-      <c r="I41" s="53">
-        <v>0</v>
-      </c>
-      <c r="J41" s="45">
-        <v>0</v>
-      </c>
-      <c r="K41" s="53">
-        <v>0</v>
-      </c>
-      <c r="L41" s="45">
+      <c r="G41" s="67">
+        <v>1</v>
+      </c>
+      <c r="H41" s="59">
+        <v>1</v>
+      </c>
+      <c r="I41" s="67">
+        <v>0</v>
+      </c>
+      <c r="J41" s="59">
+        <v>0</v>
+      </c>
+      <c r="K41" s="67">
+        <v>0</v>
+      </c>
+      <c r="L41" s="59">
         <v>4</v>
       </c>
-      <c r="M41" s="53">
-        <v>1</v>
-      </c>
-      <c r="N41" s="45"/>
+      <c r="M41" s="67">
+        <v>1</v>
+      </c>
+      <c r="N41" s="59"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5">
         <v>1</v>
@@ -4386,8 +4386,8 @@
         <v>0</v>
       </c>
       <c r="T41" s="5"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="45"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="59"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5">
         <v>0</v>
@@ -4405,42 +4405,42 @@
       <c r="AC41" s="6"/>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="84"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="10" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="59">
         <v>9</v>
       </c>
-      <c r="G42" s="53">
+      <c r="G42" s="67">
         <v>4</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="59">
         <v>4</v>
       </c>
-      <c r="I42" s="53">
-        <v>1</v>
-      </c>
-      <c r="J42" s="45">
+      <c r="I42" s="67">
+        <v>1</v>
+      </c>
+      <c r="J42" s="59">
         <v>3</v>
       </c>
-      <c r="K42" s="53">
-        <v>1</v>
-      </c>
-      <c r="L42" s="45">
+      <c r="K42" s="67">
+        <v>1</v>
+      </c>
+      <c r="L42" s="59">
         <v>2</v>
       </c>
-      <c r="M42" s="53">
+      <c r="M42" s="67">
         <v>2</v>
       </c>
-      <c r="N42" s="45"/>
+      <c r="N42" s="59"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5">
         <v>3</v>
@@ -4455,8 +4455,8 @@
         <v>1</v>
       </c>
       <c r="T42" s="5"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="45"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="59"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5">
         <v>0</v>
@@ -4474,42 +4474,42 @@
       <c r="AC42" s="6"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="84"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="10" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="59">
         <v>23</v>
       </c>
-      <c r="G43" s="53">
+      <c r="G43" s="67">
         <v>8</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="59">
         <v>7</v>
       </c>
-      <c r="I43" s="53">
+      <c r="I43" s="67">
         <v>3</v>
       </c>
-      <c r="J43" s="45">
+      <c r="J43" s="59">
         <v>6</v>
       </c>
-      <c r="K43" s="53">
+      <c r="K43" s="67">
         <v>5</v>
       </c>
-      <c r="L43" s="45">
+      <c r="L43" s="59">
         <v>10</v>
       </c>
-      <c r="M43" s="53">
-        <v>0</v>
-      </c>
-      <c r="N43" s="45"/>
+      <c r="M43" s="67">
+        <v>0</v>
+      </c>
+      <c r="N43" s="59"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5">
         <v>5</v>
@@ -4524,8 +4524,8 @@
         <v>5</v>
       </c>
       <c r="T43" s="5"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="45"/>
+      <c r="U43" s="67"/>
+      <c r="V43" s="59"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5">
         <v>4</v>
@@ -4543,42 +4543,42 @@
       <c r="AC43" s="6"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="84"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="10" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="59">
         <v>70</v>
       </c>
-      <c r="G44" s="53">
+      <c r="G44" s="67">
         <v>44</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="59">
         <v>19</v>
       </c>
-      <c r="I44" s="53">
+      <c r="I44" s="67">
         <v>17</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="59">
         <v>28</v>
       </c>
-      <c r="K44" s="53">
+      <c r="K44" s="67">
         <v>14</v>
       </c>
-      <c r="L44" s="45">
+      <c r="L44" s="59">
         <v>23</v>
       </c>
-      <c r="M44" s="53">
+      <c r="M44" s="67">
         <v>13</v>
       </c>
-      <c r="N44" s="45"/>
+      <c r="N44" s="59"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5">
         <v>18</v>
@@ -4593,8 +4593,8 @@
         <v>16</v>
       </c>
       <c r="T44" s="5"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="45"/>
+      <c r="U44" s="67"/>
+      <c r="V44" s="59"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5">
         <v>11</v>
@@ -4612,42 +4612,42 @@
       <c r="AC44" s="6"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="84"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="10" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="59">
         <v>181</v>
       </c>
-      <c r="G45" s="53">
+      <c r="G45" s="67">
         <v>91</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="59">
         <v>61</v>
       </c>
-      <c r="I45" s="53">
+      <c r="I45" s="67">
         <v>34</v>
       </c>
-      <c r="J45" s="45">
+      <c r="J45" s="59">
         <v>81</v>
       </c>
-      <c r="K45" s="53">
+      <c r="K45" s="67">
         <v>37</v>
       </c>
-      <c r="L45" s="45">
+      <c r="L45" s="59">
         <v>39</v>
       </c>
-      <c r="M45" s="53">
+      <c r="M45" s="67">
         <v>20</v>
       </c>
-      <c r="N45" s="45"/>
+      <c r="N45" s="59"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5">
         <v>49</v>
@@ -4662,8 +4662,8 @@
         <v>35</v>
       </c>
       <c r="T45" s="5"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="45"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="59"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5">
         <v>30</v>
@@ -4681,42 +4681,42 @@
       <c r="AC45" s="6"/>
     </row>
     <row r="46" spans="1:29">
-      <c r="A46" s="84"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="10" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="59">
         <v>222</v>
       </c>
-      <c r="G46" s="53">
+      <c r="G46" s="67">
         <v>94</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="59">
         <v>90</v>
       </c>
-      <c r="I46" s="53">
+      <c r="I46" s="67">
         <v>42</v>
       </c>
-      <c r="J46" s="45">
+      <c r="J46" s="59">
         <v>101</v>
       </c>
-      <c r="K46" s="53">
+      <c r="K46" s="67">
         <v>37</v>
       </c>
-      <c r="L46" s="45">
+      <c r="L46" s="59">
         <v>31</v>
       </c>
-      <c r="M46" s="53">
+      <c r="M46" s="67">
         <v>15</v>
       </c>
-      <c r="N46" s="45"/>
+      <c r="N46" s="59"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5">
         <v>51</v>
@@ -4731,8 +4731,8 @@
         <v>49</v>
       </c>
       <c r="T46" s="5"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="45"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="59"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5">
         <v>21</v>
@@ -4750,42 +4750,42 @@
       <c r="AC46" s="6"/>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="84"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="10" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="59">
         <v>194</v>
       </c>
-      <c r="G47" s="53">
+      <c r="G47" s="67">
         <v>64</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="59">
         <v>101</v>
       </c>
-      <c r="I47" s="53">
+      <c r="I47" s="67">
         <v>25</v>
       </c>
-      <c r="J47" s="45">
+      <c r="J47" s="59">
         <v>64</v>
       </c>
-      <c r="K47" s="53">
+      <c r="K47" s="67">
         <v>28</v>
       </c>
-      <c r="L47" s="45">
+      <c r="L47" s="59">
         <v>29</v>
       </c>
-      <c r="M47" s="53">
+      <c r="M47" s="67">
         <v>11</v>
       </c>
-      <c r="N47" s="45"/>
+      <c r="N47" s="59"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5">
         <v>25</v>
@@ -4800,8 +4800,8 @@
         <v>53</v>
       </c>
       <c r="T47" s="5"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="45"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="59"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5">
         <v>11</v>
@@ -4819,294 +4819,283 @@
       <c r="AC47" s="6"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="84"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="12" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="64">
         <v>416</v>
       </c>
-      <c r="G48" s="58">
+      <c r="G48" s="72">
         <v>158</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="64">
         <v>191</v>
       </c>
-      <c r="I48" s="58">
+      <c r="I48" s="72">
         <v>67</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="64">
         <v>165</v>
       </c>
-      <c r="K48" s="58">
+      <c r="K48" s="72">
         <v>65</v>
       </c>
-      <c r="L48" s="50">
+      <c r="L48" s="64">
         <v>60</v>
       </c>
-      <c r="M48" s="58">
+      <c r="M48" s="72">
         <v>26</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13">
+      <c r="N48" s="64"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19">
         <v>76</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="Q48" s="19">
         <v>127</v>
       </c>
-      <c r="R48" s="13">
+      <c r="R48" s="19">
         <v>111</v>
       </c>
-      <c r="S48" s="13">
+      <c r="S48" s="19">
         <v>102</v>
       </c>
-      <c r="T48" s="13"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13">
+      <c r="T48" s="19"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19">
         <v>32</v>
       </c>
-      <c r="Y48" s="13">
+      <c r="Y48" s="19">
         <v>46</v>
       </c>
-      <c r="Z48" s="13">
+      <c r="Z48" s="19">
         <v>51</v>
       </c>
-      <c r="AA48" s="13">
+      <c r="AA48" s="19">
         <v>29</v>
       </c>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="14"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="20"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="84"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="12" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="64">
         <v>2</v>
       </c>
-      <c r="G49" s="58">
-        <v>0</v>
-      </c>
-      <c r="H49" s="50">
+      <c r="G49" s="72">
+        <v>0</v>
+      </c>
+      <c r="H49" s="64">
         <v>2</v>
       </c>
-      <c r="I49" s="58">
-        <v>0</v>
-      </c>
-      <c r="J49" s="50">
-        <v>0</v>
-      </c>
-      <c r="K49" s="58">
-        <v>0</v>
-      </c>
-      <c r="L49" s="50">
-        <v>0</v>
-      </c>
-      <c r="M49" s="58">
-        <v>0</v>
-      </c>
-      <c r="N49" s="50"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="13">
-        <v>1</v>
-      </c>
-      <c r="R49" s="13">
-        <v>1</v>
-      </c>
-      <c r="S49" s="13">
-        <v>0</v>
-      </c>
-      <c r="T49" s="13"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="14"/>
+      <c r="I49" s="72">
+        <v>0</v>
+      </c>
+      <c r="J49" s="64">
+        <v>0</v>
+      </c>
+      <c r="K49" s="72">
+        <v>0</v>
+      </c>
+      <c r="L49" s="64">
+        <v>0</v>
+      </c>
+      <c r="M49" s="72">
+        <v>0</v>
+      </c>
+      <c r="N49" s="64"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>1</v>
+      </c>
+      <c r="R49" s="19">
+        <v>1</v>
+      </c>
+      <c r="S49" s="19">
+        <v>0</v>
+      </c>
+      <c r="T49" s="19"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="20"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="85"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="15" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="47">
+      <c r="F50" s="61">
         <v>8.6039603960396036</v>
       </c>
-      <c r="G50" s="55">
+      <c r="G50" s="69">
         <v>8.477124183006536</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="61">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I50" s="55">
+      <c r="I50" s="69">
         <v>8.5409836065573774</v>
       </c>
-      <c r="J50" s="47">
+      <c r="J50" s="61">
         <v>8.6360424028268543</v>
       </c>
-      <c r="K50" s="55">
+      <c r="K50" s="69">
         <v>8.5409836065573774</v>
       </c>
-      <c r="L50" s="47">
+      <c r="L50" s="61">
         <v>8.1366906474820144</v>
       </c>
-      <c r="M50" s="55">
+      <c r="M50" s="69">
         <v>8.2258064516129039</v>
       </c>
-      <c r="N50" s="47"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16">
+      <c r="N50" s="61"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24">
         <v>8.3947368421052637</v>
       </c>
-      <c r="Q50" s="16">
+      <c r="Q50" s="24">
         <v>8.5478260869565226</v>
       </c>
-      <c r="R50" s="16">
+      <c r="R50" s="24">
         <v>8.69277108433735</v>
       </c>
-      <c r="S50" s="16">
+      <c r="S50" s="24">
         <v>8.7924528301886795</v>
       </c>
-      <c r="T50" s="16"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16">
+      <c r="T50" s="24"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24">
         <v>8.3116883116883109</v>
       </c>
-      <c r="Y50" s="16">
+      <c r="Y50" s="24">
         <v>8.4838709677419359</v>
       </c>
-      <c r="Z50" s="16">
+      <c r="Z50" s="24">
         <v>8.6543209876543212</v>
       </c>
-      <c r="AA50" s="16">
+      <c r="AA50" s="24">
         <v>8.4363636363636356</v>
       </c>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="17"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="25"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="86"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="19" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F51" s="65">
         <v>1.304334086495549</v>
       </c>
-      <c r="G51" s="59">
+      <c r="G51" s="73">
         <v>1.1570735687692519</v>
       </c>
-      <c r="H51" s="51">
+      <c r="H51" s="65">
         <v>1.357815146413895</v>
       </c>
-      <c r="I51" s="59">
+      <c r="I51" s="73">
         <v>1.092026253609321</v>
       </c>
-      <c r="J51" s="51">
+      <c r="J51" s="65">
         <v>1.067761573731453</v>
       </c>
-      <c r="K51" s="59">
+      <c r="K51" s="73">
         <v>1.1365275589667929</v>
       </c>
-      <c r="L51" s="51">
+      <c r="L51" s="65">
         <v>1.509397801259869</v>
       </c>
-      <c r="M51" s="59">
+      <c r="M51" s="73">
         <v>1.2984146050145431</v>
       </c>
-      <c r="N51" s="51"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20">
+      <c r="N51" s="65"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30">
         <v>1.174553006350239</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="Q51" s="30">
         <v>1.4064323737826581</v>
       </c>
-      <c r="R51" s="20">
+      <c r="R51" s="30">
         <v>1.391165470194631</v>
       </c>
-      <c r="S51" s="20">
+      <c r="S51" s="30">
         <v>1.1422577670146219</v>
       </c>
-      <c r="T51" s="20"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="51"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20">
+      <c r="T51" s="30"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="65"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30">
         <v>1.0545607748669119</v>
       </c>
-      <c r="Y51" s="20">
+      <c r="Y51" s="30">
         <v>1.079582278574998</v>
       </c>
-      <c r="Z51" s="20">
+      <c r="Z51" s="30">
         <v>1.2565875797886159</v>
       </c>
-      <c r="AA51" s="20">
+      <c r="AA51" s="30">
         <v>1.258506409931385</v>
       </c>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="21"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A36:A51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="A22:A35"/>
-    <mergeCell ref="B22:B35"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="N3:AC3"/>
     <mergeCell ref="N5:U5"/>
@@ -5117,10 +5106,21 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="V4:AC4"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="A22:A35"/>
+    <mergeCell ref="B22:B35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" location="'Content'!B2" display="Content" xr:uid="{0E25E873-2035-413D-915E-A60D46E7442B}"/>
+    <hyperlink ref="A3" location="'Content'!B2" display="Content" xr:uid="{C66E96DE-61CD-4DAA-8982-12BDC300C1F6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5134,7 +5134,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5143,97 +5143,94 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" hidden="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5318,226 +5315,226 @@
       <c r="B3" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="75" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="77"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="76"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="80" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="80" t="s">
+      <c r="I4" s="78"/>
+      <c r="J4" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="80" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="80" t="s">
+      <c r="M4" s="78"/>
+      <c r="N4" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="80" t="s">
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="79"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="78" t="s">
+      <c r="G5" s="81"/>
+      <c r="H5" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78" t="s">
+      <c r="I5" s="80"/>
+      <c r="J5" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78" t="s">
+      <c r="K5" s="80"/>
+      <c r="L5" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78" t="s">
+      <c r="M5" s="80"/>
+      <c r="N5" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78" t="s">
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="79"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="82"/>
     </row>
     <row r="6" spans="1:29" ht="45">
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="62" t="s">
+      <c r="P6" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="62" t="s">
+      <c r="Q6" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="62" t="s">
+      <c r="R6" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="S6" s="62" t="s">
+      <c r="S6" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="62" t="s">
+      <c r="T6" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="60" t="s">
+      <c r="V6" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="62" t="s">
+      <c r="W6" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="X6" s="62" t="s">
+      <c r="X6" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="Y6" s="62" t="s">
+      <c r="Y6" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="Z6" s="62" t="s">
+      <c r="Z6" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="62" t="s">
+      <c r="AA6" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="AB6" s="62" t="s">
+      <c r="AB6" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AC6" s="62" t="s">
+      <c r="AC6" s="85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="58">
         <v>709</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="66">
         <v>307</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="58">
         <v>286</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="66">
         <v>122</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="58">
         <v>283</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="66">
         <v>122</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="58">
         <v>140</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="66">
         <v>63</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="58">
         <v>0</v>
       </c>
       <c r="O7" s="3">
@@ -5558,10 +5555,10 @@
       <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="52">
-        <v>0</v>
-      </c>
-      <c r="V7" s="44">
+      <c r="U7" s="66">
+        <v>0</v>
+      </c>
+      <c r="V7" s="58">
         <v>0</v>
       </c>
       <c r="W7" s="3">
@@ -5587,460 +5584,460 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="84"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="69">
-        <v>0</v>
-      </c>
-      <c r="G8" s="72">
-        <v>0</v>
-      </c>
-      <c r="H8" s="69">
-        <v>0</v>
-      </c>
-      <c r="I8" s="72">
-        <v>0</v>
-      </c>
-      <c r="J8" s="69">
-        <v>0</v>
-      </c>
-      <c r="K8" s="72">
-        <v>0</v>
-      </c>
-      <c r="L8" s="69">
-        <v>0</v>
-      </c>
-      <c r="M8" s="72">
-        <v>0</v>
-      </c>
-      <c r="N8" s="69"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="63">
-        <v>0</v>
-      </c>
-      <c r="R8" s="63">
-        <v>0</v>
-      </c>
-      <c r="S8" s="63">
-        <v>0</v>
-      </c>
-      <c r="T8" s="63"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="64"/>
+      <c r="F8" s="92">
+        <v>0</v>
+      </c>
+      <c r="G8" s="95">
+        <v>0</v>
+      </c>
+      <c r="H8" s="92">
+        <v>0</v>
+      </c>
+      <c r="I8" s="95">
+        <v>0</v>
+      </c>
+      <c r="J8" s="92">
+        <v>0</v>
+      </c>
+      <c r="K8" s="95">
+        <v>0</v>
+      </c>
+      <c r="L8" s="92">
+        <v>0</v>
+      </c>
+      <c r="M8" s="95">
+        <v>0</v>
+      </c>
+      <c r="N8" s="92"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="86">
+        <v>0</v>
+      </c>
+      <c r="R8" s="86">
+        <v>0</v>
+      </c>
+      <c r="S8" s="86">
+        <v>0</v>
+      </c>
+      <c r="T8" s="86"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="87"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="84"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="92">
         <v>0.13963328631875879</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="95">
         <v>0.1302931596091205</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="92">
         <v>0.15384615384615391</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="95">
         <v>0.18032786885245899</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="92">
         <v>8.8339222614840993E-2</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="95">
         <v>9.0163934426229511E-2</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="92">
         <v>0.2142857142857143</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="95">
         <v>0.1111111111111111</v>
       </c>
-      <c r="N9" s="69"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63">
+      <c r="N9" s="92"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86">
         <v>0.15789473684210531</v>
       </c>
-      <c r="Q9" s="63">
+      <c r="Q9" s="86">
         <v>0.1120689655172414</v>
       </c>
-      <c r="R9" s="63">
+      <c r="R9" s="86">
         <v>0.108433734939759</v>
       </c>
-      <c r="S9" s="63">
+      <c r="S9" s="86">
         <v>0.19496855345911951</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63">
+      <c r="T9" s="86"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86">
         <v>0.12987012987012991</v>
       </c>
-      <c r="Y9" s="63">
+      <c r="Y9" s="86">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="Z9" s="63">
+      <c r="Z9" s="86">
         <v>9.8765432098765427E-2</v>
       </c>
-      <c r="AA9" s="63">
+      <c r="AA9" s="86">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="64"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="87"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="84"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="92">
         <v>0.17348377997179129</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="95">
         <v>0.21172638436482091</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="92">
         <v>0.18531468531468531</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="95">
         <v>0.1721311475409836</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="92">
         <v>0.1448763250883392</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="95">
         <v>0.20491803278688531</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="92">
         <v>0.20714285714285721</v>
       </c>
-      <c r="M10" s="72">
+      <c r="M10" s="95">
         <v>0.30158730158730163</v>
       </c>
-      <c r="N10" s="69"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63">
+      <c r="N10" s="92"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86">
         <v>0.19736842105263161</v>
       </c>
-      <c r="Q10" s="63">
+      <c r="Q10" s="86">
         <v>0.14655172413793099</v>
       </c>
-      <c r="R10" s="63">
+      <c r="R10" s="86">
         <v>0.18072289156626509</v>
       </c>
-      <c r="S10" s="63">
+      <c r="S10" s="86">
         <v>0.1823899371069182</v>
       </c>
-      <c r="T10" s="63"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63">
+      <c r="T10" s="86"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86">
         <v>0.27272727272727271</v>
       </c>
-      <c r="Y10" s="63">
+      <c r="Y10" s="86">
         <v>0.15053763440860221</v>
       </c>
-      <c r="Z10" s="63">
+      <c r="Z10" s="86">
         <v>0.23456790123456789</v>
       </c>
-      <c r="AA10" s="63">
+      <c r="AA10" s="86">
         <v>0.1964285714285714</v>
       </c>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="64"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="87"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="84"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="92">
         <v>0.65585331452750351</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="95">
         <v>0.62866449511400646</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="92">
         <v>0.62587412587412583</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="95">
         <v>0.60655737704918034</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="92">
         <v>0.73498233215547704</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="95">
         <v>0.68852459016393441</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="92">
         <v>0.55714285714285716</v>
       </c>
-      <c r="M11" s="72">
+      <c r="M11" s="95">
         <v>0.55555555555555558</v>
       </c>
-      <c r="N11" s="69"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63">
+      <c r="N11" s="92"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86">
         <v>0.63157894736842102</v>
       </c>
-      <c r="Q11" s="63">
+      <c r="Q11" s="86">
         <v>0.7068965517241379</v>
       </c>
-      <c r="R11" s="63">
+      <c r="R11" s="86">
         <v>0.66867469879518071</v>
       </c>
-      <c r="S11" s="63">
+      <c r="S11" s="86">
         <v>0.5911949685534591</v>
       </c>
-      <c r="T11" s="63"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63">
+      <c r="T11" s="86"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86">
         <v>0.59740259740259738</v>
       </c>
-      <c r="Y11" s="63">
+      <c r="Y11" s="86">
         <v>0.74193548387096775</v>
       </c>
-      <c r="Z11" s="63">
+      <c r="Z11" s="86">
         <v>0.62962962962962965</v>
       </c>
-      <c r="AA11" s="63">
+      <c r="AA11" s="86">
         <v>0.48214285714285721</v>
       </c>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="64"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="87"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="84"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="92">
         <v>3.10296191819464E-2</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="95">
         <v>2.931596091205212E-2</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="92">
         <v>3.4965034965034968E-2</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="95">
         <v>4.0983606557377053E-2</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="92">
         <v>3.1802120141342753E-2</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="95">
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="92">
         <v>2.1428571428571429E-2</v>
       </c>
-      <c r="M12" s="72">
+      <c r="M12" s="95">
         <v>3.1746031746031737E-2</v>
       </c>
-      <c r="N12" s="69"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63">
+      <c r="N12" s="92"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86">
         <v>1.3157894736842099E-2</v>
       </c>
-      <c r="Q12" s="63">
+      <c r="Q12" s="86">
         <v>3.4482758620689648E-2</v>
       </c>
-      <c r="R12" s="63">
+      <c r="R12" s="86">
         <v>4.2168674698795178E-2</v>
       </c>
-      <c r="S12" s="63">
+      <c r="S12" s="86">
         <v>3.1446540880503138E-2</v>
       </c>
-      <c r="T12" s="63"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="63">
+      <c r="T12" s="86"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="86">
         <v>4.3010752688172053E-2</v>
       </c>
-      <c r="Z12" s="63">
+      <c r="Z12" s="86">
         <v>3.7037037037037028E-2</v>
       </c>
-      <c r="AA12" s="63">
+      <c r="AA12" s="86">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="64"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="87"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="70">
-        <v>0</v>
-      </c>
-      <c r="G13" s="73">
-        <v>0</v>
-      </c>
-      <c r="H13" s="70">
-        <v>0</v>
-      </c>
-      <c r="I13" s="73">
-        <v>0</v>
-      </c>
-      <c r="J13" s="70">
-        <v>0</v>
-      </c>
-      <c r="K13" s="73">
-        <v>0</v>
-      </c>
-      <c r="L13" s="70">
-        <v>0</v>
-      </c>
-      <c r="M13" s="73">
-        <v>0</v>
-      </c>
-      <c r="N13" s="70"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="65">
-        <v>0</v>
-      </c>
-      <c r="R13" s="65">
-        <v>0</v>
-      </c>
-      <c r="S13" s="65">
-        <v>0</v>
-      </c>
-      <c r="T13" s="65"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="65">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="66"/>
+      <c r="F13" s="93">
+        <v>0</v>
+      </c>
+      <c r="G13" s="96">
+        <v>0</v>
+      </c>
+      <c r="H13" s="93">
+        <v>0</v>
+      </c>
+      <c r="I13" s="96">
+        <v>0</v>
+      </c>
+      <c r="J13" s="93">
+        <v>0</v>
+      </c>
+      <c r="K13" s="96">
+        <v>0</v>
+      </c>
+      <c r="L13" s="93">
+        <v>0</v>
+      </c>
+      <c r="M13" s="96">
+        <v>0</v>
+      </c>
+      <c r="N13" s="93"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="88">
+        <v>0</v>
+      </c>
+      <c r="R13" s="88">
+        <v>0</v>
+      </c>
+      <c r="S13" s="88">
+        <v>0</v>
+      </c>
+      <c r="T13" s="88"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="89"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="58">
         <v>695</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="66">
         <v>303</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="58">
         <v>277</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="66">
         <v>119</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="58">
         <v>282</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="66">
         <v>121</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="58">
         <v>136</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="66">
         <v>63</v>
       </c>
-      <c r="N14" s="44">
+      <c r="N14" s="58">
         <v>0</v>
       </c>
       <c r="O14" s="3">
@@ -6061,10 +6058,10 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="52">
-        <v>0</v>
-      </c>
-      <c r="V14" s="44">
+      <c r="U14" s="66">
+        <v>0</v>
+      </c>
+      <c r="V14" s="58">
         <v>0</v>
       </c>
       <c r="W14" s="3">
@@ -6090,529 +6087,529 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="85"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="61">
         <v>1.496402877697842</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="69">
         <v>1.438943894389439</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="61">
         <v>1.4332129963898921</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="69">
         <v>1.3613445378151261</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="61">
         <v>1.602836879432624</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="69">
         <v>1.5619834710743801</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="61">
         <v>1.404411764705882</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="69">
         <v>1.3492063492063491</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16">
+      <c r="N15" s="61"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24">
         <v>1.3783783783783781</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="24">
         <v>1.458149779735683</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="24">
         <v>1.4846625766871171</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="24">
         <v>1.6751592356687901</v>
       </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16">
+      <c r="T15" s="24"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24">
         <v>1.27027027027027</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y15" s="24">
         <v>1.365591397849462</v>
       </c>
-      <c r="Z15" s="16">
+      <c r="Z15" s="24">
         <v>1.580246913580247</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AA15" s="24">
         <v>1.581818181818182</v>
       </c>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="17"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="25"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="85"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="61">
         <v>0.61879892866160036</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="69">
         <v>0.58857911194156609</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="61">
         <v>0.61389242918697939</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="69">
         <v>0.56345021341692003</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="61">
         <v>0.61278702475639968</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="69">
         <v>0.60404969419564425</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="61">
         <v>0.61317240002862394</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="69">
         <v>0.57245172098812258</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16">
+      <c r="N16" s="61"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24">
         <v>0.52690090466694883</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="24">
         <v>0.64613357514974556</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="24">
         <v>0.58114221523788068</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="24">
         <v>0.66232458257759952</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16">
+      <c r="T16" s="24"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24">
         <v>0.44713080116517462</v>
       </c>
-      <c r="Y16" s="16">
+      <c r="Y16" s="24">
         <v>0.52719409503354853</v>
       </c>
-      <c r="Z16" s="16">
+      <c r="Z16" s="24">
         <v>0.66828507260869208</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AA16" s="24">
         <v>0.65802479664267444</v>
       </c>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="17"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="25"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="94"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="48">
-        <v>1</v>
-      </c>
-      <c r="G17" s="56">
-        <v>1</v>
-      </c>
-      <c r="H17" s="48">
-        <v>1</v>
-      </c>
-      <c r="I17" s="56">
-        <v>1</v>
-      </c>
-      <c r="J17" s="48">
-        <v>1</v>
-      </c>
-      <c r="K17" s="56">
-        <v>1</v>
-      </c>
-      <c r="L17" s="48">
-        <v>1</v>
-      </c>
-      <c r="M17" s="56">
-        <v>1</v>
-      </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>1</v>
-      </c>
-      <c r="R17" s="25">
-        <v>1</v>
-      </c>
-      <c r="S17" s="25">
-        <v>1</v>
-      </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="26"/>
+      <c r="F17" s="62">
+        <v>1</v>
+      </c>
+      <c r="G17" s="70">
+        <v>1</v>
+      </c>
+      <c r="H17" s="62">
+        <v>1</v>
+      </c>
+      <c r="I17" s="70">
+        <v>1</v>
+      </c>
+      <c r="J17" s="62">
+        <v>1</v>
+      </c>
+      <c r="K17" s="70">
+        <v>1</v>
+      </c>
+      <c r="L17" s="62">
+        <v>1</v>
+      </c>
+      <c r="M17" s="70">
+        <v>1</v>
+      </c>
+      <c r="N17" s="62"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>1</v>
+      </c>
+      <c r="R17" s="37">
+        <v>1</v>
+      </c>
+      <c r="S17" s="37">
+        <v>1</v>
+      </c>
+      <c r="T17" s="37"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="38"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="94"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="62">
         <v>4</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="70">
         <v>3</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="62">
         <v>4</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="70">
         <v>3</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="62">
         <v>3</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="70">
         <v>3</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="62">
         <v>4</v>
       </c>
-      <c r="M18" s="56">
+      <c r="M18" s="70">
         <v>3</v>
       </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25">
+      <c r="N18" s="62"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37">
         <v>3</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="37">
         <v>4</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="37">
         <v>3</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18" s="37">
         <v>4</v>
       </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25">
+      <c r="T18" s="37"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37">
         <v>2</v>
       </c>
-      <c r="Y18" s="25">
+      <c r="Y18" s="37">
         <v>3</v>
       </c>
-      <c r="Z18" s="25">
+      <c r="Z18" s="37">
         <v>3</v>
       </c>
-      <c r="AA18" s="25">
+      <c r="AA18" s="37">
         <v>3</v>
       </c>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="26"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="38"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="94"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="48">
-        <v>1</v>
-      </c>
-      <c r="G19" s="56">
-        <v>1</v>
-      </c>
-      <c r="H19" s="48">
-        <v>1</v>
-      </c>
-      <c r="I19" s="56">
-        <v>1</v>
-      </c>
-      <c r="J19" s="48">
-        <v>1</v>
-      </c>
-      <c r="K19" s="56">
-        <v>1</v>
-      </c>
-      <c r="L19" s="48">
-        <v>1</v>
-      </c>
-      <c r="M19" s="56">
-        <v>1</v>
-      </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>1</v>
-      </c>
-      <c r="R19" s="25">
-        <v>1</v>
-      </c>
-      <c r="S19" s="25">
-        <v>1</v>
-      </c>
-      <c r="T19" s="25"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="26"/>
+      <c r="F19" s="62">
+        <v>1</v>
+      </c>
+      <c r="G19" s="70">
+        <v>1</v>
+      </c>
+      <c r="H19" s="62">
+        <v>1</v>
+      </c>
+      <c r="I19" s="70">
+        <v>1</v>
+      </c>
+      <c r="J19" s="62">
+        <v>1</v>
+      </c>
+      <c r="K19" s="70">
+        <v>1</v>
+      </c>
+      <c r="L19" s="62">
+        <v>1</v>
+      </c>
+      <c r="M19" s="70">
+        <v>1</v>
+      </c>
+      <c r="N19" s="62"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>1</v>
+      </c>
+      <c r="R19" s="37">
+        <v>1</v>
+      </c>
+      <c r="S19" s="37">
+        <v>1</v>
+      </c>
+      <c r="T19" s="37"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="38"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="94"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="48">
-        <v>1</v>
-      </c>
-      <c r="G20" s="56">
-        <v>1</v>
-      </c>
-      <c r="H20" s="48">
-        <v>1</v>
-      </c>
-      <c r="I20" s="56">
-        <v>1</v>
-      </c>
-      <c r="J20" s="48">
+      <c r="F20" s="62">
+        <v>1</v>
+      </c>
+      <c r="G20" s="70">
+        <v>1</v>
+      </c>
+      <c r="H20" s="62">
+        <v>1</v>
+      </c>
+      <c r="I20" s="70">
+        <v>1</v>
+      </c>
+      <c r="J20" s="62">
         <v>2</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="70">
         <v>2</v>
       </c>
-      <c r="L20" s="48">
-        <v>1</v>
-      </c>
-      <c r="M20" s="56">
-        <v>1</v>
-      </c>
-      <c r="N20" s="48"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>1</v>
-      </c>
-      <c r="R20" s="25">
-        <v>1</v>
-      </c>
-      <c r="S20" s="25">
+      <c r="L20" s="62">
+        <v>1</v>
+      </c>
+      <c r="M20" s="70">
+        <v>1</v>
+      </c>
+      <c r="N20" s="62"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="37">
+        <v>1</v>
+      </c>
+      <c r="R20" s="37">
+        <v>1</v>
+      </c>
+      <c r="S20" s="37">
         <v>2</v>
       </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="26"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="38"/>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="95"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="63">
         <v>2</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="71">
         <v>2</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="63">
         <v>2</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="71">
         <v>2</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="63">
         <v>2</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="71">
         <v>2</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="63">
         <v>2</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="71">
         <v>2</v>
       </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30">
+      <c r="N21" s="63"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44">
         <v>2</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="44">
         <v>2</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="44">
         <v>2</v>
       </c>
-      <c r="S21" s="30">
+      <c r="S21" s="44">
         <v>2</v>
       </c>
-      <c r="T21" s="30"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30">
+      <c r="T21" s="44"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44">
         <v>2</v>
       </c>
-      <c r="Y21" s="30">
+      <c r="Y21" s="44">
         <v>2</v>
       </c>
-      <c r="Z21" s="30">
+      <c r="Z21" s="44">
         <v>2</v>
       </c>
-      <c r="AA21" s="30">
+      <c r="AA21" s="44">
         <v>2</v>
       </c>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="31"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="45"/>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="58">
         <v>709</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="66">
         <v>307</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="58">
         <v>286</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="66">
         <v>122</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="58">
         <v>283</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="66">
         <v>122</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="58">
         <v>140</v>
       </c>
-      <c r="M22" s="52">
+      <c r="M22" s="66">
         <v>63</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="58">
         <v>0</v>
       </c>
       <c r="O22" s="3">
@@ -6633,10 +6630,10 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="52">
-        <v>0</v>
-      </c>
-      <c r="V22" s="44">
+      <c r="U22" s="66">
+        <v>0</v>
+      </c>
+      <c r="V22" s="58">
         <v>0</v>
       </c>
       <c r="W22" s="3">
@@ -6662,943 +6659,943 @@
       </c>
     </row>
     <row r="23" spans="1:29">
-      <c r="A23" s="84"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="92">
         <v>0.99717912552891397</v>
       </c>
-      <c r="G23" s="72">
+      <c r="G23" s="95">
         <v>0.99674267100977199</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="92">
         <v>0.99650349650349646</v>
       </c>
-      <c r="I23" s="72">
-        <v>1</v>
-      </c>
-      <c r="J23" s="69">
-        <v>1</v>
-      </c>
-      <c r="K23" s="72">
-        <v>1</v>
-      </c>
-      <c r="L23" s="69">
+      <c r="I23" s="95">
+        <v>1</v>
+      </c>
+      <c r="J23" s="92">
+        <v>1</v>
+      </c>
+      <c r="K23" s="95">
+        <v>1</v>
+      </c>
+      <c r="L23" s="92">
         <v>0.99285714285714288</v>
       </c>
-      <c r="M23" s="72">
+      <c r="M23" s="95">
         <v>0.98412698412698407</v>
       </c>
-      <c r="N23" s="69"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="63">
+      <c r="N23" s="92"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="86">
         <v>0.99137931034482762</v>
       </c>
-      <c r="R23" s="63">
-        <v>1</v>
-      </c>
-      <c r="S23" s="63">
-        <v>1</v>
-      </c>
-      <c r="T23" s="63"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="63">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="63">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="63">
+      <c r="R23" s="86">
+        <v>1</v>
+      </c>
+      <c r="S23" s="86">
+        <v>1</v>
+      </c>
+      <c r="T23" s="86"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="86">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="86">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="86">
         <v>0.9821428571428571</v>
       </c>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="64"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="87"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="A24" s="84"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="69">
-        <v>1</v>
-      </c>
-      <c r="G24" s="72">
-        <v>1</v>
-      </c>
-      <c r="H24" s="69">
-        <v>1</v>
-      </c>
-      <c r="I24" s="72">
-        <v>1</v>
-      </c>
-      <c r="J24" s="69">
-        <v>1</v>
-      </c>
-      <c r="K24" s="72">
-        <v>1</v>
-      </c>
-      <c r="L24" s="69">
-        <v>1</v>
-      </c>
-      <c r="M24" s="72">
-        <v>1</v>
-      </c>
-      <c r="N24" s="69"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="63">
-        <v>1</v>
-      </c>
-      <c r="R24" s="63">
-        <v>1</v>
-      </c>
-      <c r="S24" s="63">
-        <v>1</v>
-      </c>
-      <c r="T24" s="63"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="63">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="63">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="63">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="64"/>
+      <c r="F24" s="92">
+        <v>1</v>
+      </c>
+      <c r="G24" s="95">
+        <v>1</v>
+      </c>
+      <c r="H24" s="92">
+        <v>1</v>
+      </c>
+      <c r="I24" s="95">
+        <v>1</v>
+      </c>
+      <c r="J24" s="92">
+        <v>1</v>
+      </c>
+      <c r="K24" s="95">
+        <v>1</v>
+      </c>
+      <c r="L24" s="92">
+        <v>1</v>
+      </c>
+      <c r="M24" s="95">
+        <v>1</v>
+      </c>
+      <c r="N24" s="92"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="86">
+        <v>1</v>
+      </c>
+      <c r="R24" s="86">
+        <v>1</v>
+      </c>
+      <c r="S24" s="86">
+        <v>1</v>
+      </c>
+      <c r="T24" s="86"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="86">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="86">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="86">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="87"/>
     </row>
     <row r="25" spans="1:29">
-      <c r="A25" s="84"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="69">
+      <c r="F25" s="92">
         <v>0.99858956276445698</v>
       </c>
-      <c r="G25" s="72">
-        <v>1</v>
-      </c>
-      <c r="H25" s="69">
+      <c r="G25" s="95">
+        <v>1</v>
+      </c>
+      <c r="H25" s="92">
         <v>0.99650349650349646</v>
       </c>
-      <c r="I25" s="72">
-        <v>1</v>
-      </c>
-      <c r="J25" s="69">
-        <v>1</v>
-      </c>
-      <c r="K25" s="72">
-        <v>1</v>
-      </c>
-      <c r="L25" s="69">
-        <v>1</v>
-      </c>
-      <c r="M25" s="72">
-        <v>1</v>
-      </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="63">
+      <c r="I25" s="95">
+        <v>1</v>
+      </c>
+      <c r="J25" s="92">
+        <v>1</v>
+      </c>
+      <c r="K25" s="95">
+        <v>1</v>
+      </c>
+      <c r="L25" s="92">
+        <v>1</v>
+      </c>
+      <c r="M25" s="95">
+        <v>1</v>
+      </c>
+      <c r="N25" s="92"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="86">
         <v>0.99568965517241381</v>
       </c>
-      <c r="R25" s="63">
-        <v>1</v>
-      </c>
-      <c r="S25" s="63">
-        <v>1</v>
-      </c>
-      <c r="T25" s="63"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="63">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="63">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="63">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="64"/>
+      <c r="R25" s="86">
+        <v>1</v>
+      </c>
+      <c r="S25" s="86">
+        <v>1</v>
+      </c>
+      <c r="T25" s="86"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="86">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="86">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="86">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="87"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="84"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="69">
-        <v>0</v>
-      </c>
-      <c r="G26" s="72">
-        <v>0</v>
-      </c>
-      <c r="H26" s="69">
-        <v>0</v>
-      </c>
-      <c r="I26" s="72">
-        <v>0</v>
-      </c>
-      <c r="J26" s="69">
-        <v>0</v>
-      </c>
-      <c r="K26" s="72">
-        <v>0</v>
-      </c>
-      <c r="L26" s="69">
-        <v>0</v>
-      </c>
-      <c r="M26" s="72">
-        <v>0</v>
-      </c>
-      <c r="N26" s="69"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="63">
-        <v>0</v>
-      </c>
-      <c r="R26" s="63">
-        <v>0</v>
-      </c>
-      <c r="S26" s="63">
-        <v>0</v>
-      </c>
-      <c r="T26" s="63"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="64"/>
+      <c r="F26" s="92">
+        <v>0</v>
+      </c>
+      <c r="G26" s="95">
+        <v>0</v>
+      </c>
+      <c r="H26" s="92">
+        <v>0</v>
+      </c>
+      <c r="I26" s="95">
+        <v>0</v>
+      </c>
+      <c r="J26" s="92">
+        <v>0</v>
+      </c>
+      <c r="K26" s="95">
+        <v>0</v>
+      </c>
+      <c r="L26" s="92">
+        <v>0</v>
+      </c>
+      <c r="M26" s="95">
+        <v>0</v>
+      </c>
+      <c r="N26" s="92"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="86">
+        <v>0</v>
+      </c>
+      <c r="R26" s="86">
+        <v>0</v>
+      </c>
+      <c r="S26" s="86">
+        <v>0</v>
+      </c>
+      <c r="T26" s="86"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="87"/>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="84"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="10" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="69">
-        <v>0</v>
-      </c>
-      <c r="G27" s="72">
-        <v>0</v>
-      </c>
-      <c r="H27" s="69">
-        <v>0</v>
-      </c>
-      <c r="I27" s="72">
-        <v>0</v>
-      </c>
-      <c r="J27" s="69">
-        <v>0</v>
-      </c>
-      <c r="K27" s="72">
-        <v>0</v>
-      </c>
-      <c r="L27" s="69">
-        <v>0</v>
-      </c>
-      <c r="M27" s="72">
-        <v>0</v>
-      </c>
-      <c r="N27" s="69"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="63">
-        <v>0</v>
-      </c>
-      <c r="R27" s="63">
-        <v>0</v>
-      </c>
-      <c r="S27" s="63">
-        <v>0</v>
-      </c>
-      <c r="T27" s="63"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="64"/>
+      <c r="F27" s="92">
+        <v>0</v>
+      </c>
+      <c r="G27" s="95">
+        <v>0</v>
+      </c>
+      <c r="H27" s="92">
+        <v>0</v>
+      </c>
+      <c r="I27" s="95">
+        <v>0</v>
+      </c>
+      <c r="J27" s="92">
+        <v>0</v>
+      </c>
+      <c r="K27" s="95">
+        <v>0</v>
+      </c>
+      <c r="L27" s="92">
+        <v>0</v>
+      </c>
+      <c r="M27" s="95">
+        <v>0</v>
+      </c>
+      <c r="N27" s="92"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="86">
+        <v>0</v>
+      </c>
+      <c r="R27" s="86">
+        <v>0</v>
+      </c>
+      <c r="S27" s="86">
+        <v>0</v>
+      </c>
+      <c r="T27" s="86"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="87"/>
     </row>
     <row r="28" spans="1:29">
-      <c r="A28" s="84"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="10" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="69">
+      <c r="F28" s="92">
         <v>0.8885754583921015</v>
       </c>
-      <c r="G28" s="72">
+      <c r="G28" s="95">
         <v>0.87622149837133545</v>
       </c>
-      <c r="H28" s="69">
+      <c r="H28" s="92">
         <v>0.90559440559440563</v>
       </c>
-      <c r="I28" s="72">
+      <c r="I28" s="95">
         <v>0.88524590163934425</v>
       </c>
-      <c r="J28" s="69">
+      <c r="J28" s="92">
         <v>0.86572438162544174</v>
       </c>
-      <c r="K28" s="72">
+      <c r="K28" s="95">
         <v>0.85245901639344257</v>
       </c>
-      <c r="L28" s="69">
+      <c r="L28" s="92">
         <v>0.9</v>
       </c>
-      <c r="M28" s="72">
+      <c r="M28" s="95">
         <v>0.90476190476190477</v>
       </c>
-      <c r="N28" s="69"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63">
+      <c r="N28" s="92"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86">
         <v>0.84868421052631582</v>
       </c>
-      <c r="Q28" s="63">
+      <c r="Q28" s="86">
         <v>0.91379310344827591</v>
       </c>
-      <c r="R28" s="63">
+      <c r="R28" s="86">
         <v>0.90963855421686746</v>
       </c>
-      <c r="S28" s="63">
+      <c r="S28" s="86">
         <v>0.86792452830188682</v>
       </c>
-      <c r="T28" s="63"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63">
+      <c r="T28" s="86"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86">
         <v>0.88311688311688308</v>
       </c>
-      <c r="Y28" s="63">
+      <c r="Y28" s="86">
         <v>0.81720430107526887</v>
       </c>
-      <c r="Z28" s="63">
+      <c r="Z28" s="86">
         <v>0.93827160493827155</v>
       </c>
-      <c r="AA28" s="63">
+      <c r="AA28" s="86">
         <v>0.875</v>
       </c>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="64"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="87"/>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="84"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="69">
-        <v>0</v>
-      </c>
-      <c r="G29" s="72">
-        <v>0</v>
-      </c>
-      <c r="H29" s="69">
-        <v>0</v>
-      </c>
-      <c r="I29" s="72">
-        <v>0</v>
-      </c>
-      <c r="J29" s="69">
-        <v>0</v>
-      </c>
-      <c r="K29" s="72">
-        <v>0</v>
-      </c>
-      <c r="L29" s="69">
-        <v>0</v>
-      </c>
-      <c r="M29" s="72">
-        <v>0</v>
-      </c>
-      <c r="N29" s="69"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="63">
-        <v>0</v>
-      </c>
-      <c r="R29" s="63">
-        <v>0</v>
-      </c>
-      <c r="S29" s="63">
-        <v>0</v>
-      </c>
-      <c r="T29" s="63"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="64"/>
+      <c r="F29" s="92">
+        <v>0</v>
+      </c>
+      <c r="G29" s="95">
+        <v>0</v>
+      </c>
+      <c r="H29" s="92">
+        <v>0</v>
+      </c>
+      <c r="I29" s="95">
+        <v>0</v>
+      </c>
+      <c r="J29" s="92">
+        <v>0</v>
+      </c>
+      <c r="K29" s="95">
+        <v>0</v>
+      </c>
+      <c r="L29" s="92">
+        <v>0</v>
+      </c>
+      <c r="M29" s="95">
+        <v>0</v>
+      </c>
+      <c r="N29" s="92"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="86">
+        <v>0</v>
+      </c>
+      <c r="R29" s="86">
+        <v>0</v>
+      </c>
+      <c r="S29" s="86">
+        <v>0</v>
+      </c>
+      <c r="T29" s="86"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="87"/>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="84"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="10" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="69">
-        <v>0</v>
-      </c>
-      <c r="G30" s="72">
-        <v>0</v>
-      </c>
-      <c r="H30" s="69">
-        <v>0</v>
-      </c>
-      <c r="I30" s="72">
-        <v>0</v>
-      </c>
-      <c r="J30" s="69">
-        <v>0</v>
-      </c>
-      <c r="K30" s="72">
-        <v>0</v>
-      </c>
-      <c r="L30" s="69">
-        <v>0</v>
-      </c>
-      <c r="M30" s="72">
-        <v>0</v>
-      </c>
-      <c r="N30" s="69"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="63">
-        <v>0</v>
-      </c>
-      <c r="R30" s="63">
-        <v>0</v>
-      </c>
-      <c r="S30" s="63">
-        <v>0</v>
-      </c>
-      <c r="T30" s="63"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="63"/>
-      <c r="AC30" s="64"/>
+      <c r="F30" s="92">
+        <v>0</v>
+      </c>
+      <c r="G30" s="95">
+        <v>0</v>
+      </c>
+      <c r="H30" s="92">
+        <v>0</v>
+      </c>
+      <c r="I30" s="95">
+        <v>0</v>
+      </c>
+      <c r="J30" s="92">
+        <v>0</v>
+      </c>
+      <c r="K30" s="95">
+        <v>0</v>
+      </c>
+      <c r="L30" s="92">
+        <v>0</v>
+      </c>
+      <c r="M30" s="95">
+        <v>0</v>
+      </c>
+      <c r="N30" s="92"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="86">
+        <v>0</v>
+      </c>
+      <c r="R30" s="86">
+        <v>0</v>
+      </c>
+      <c r="S30" s="86">
+        <v>0</v>
+      </c>
+      <c r="T30" s="86"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="87"/>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="84"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="10" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="92">
         <v>0.15373765867418901</v>
       </c>
-      <c r="G31" s="72">
+      <c r="G31" s="95">
         <v>0.10749185667752439</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="92">
         <v>0.16433566433566429</v>
       </c>
-      <c r="I31" s="72">
+      <c r="I31" s="95">
         <v>9.8360655737704916E-2</v>
       </c>
-      <c r="J31" s="69">
+      <c r="J31" s="92">
         <v>9.5406360424028266E-2</v>
       </c>
-      <c r="K31" s="72">
+      <c r="K31" s="95">
         <v>5.737704918032787E-2</v>
       </c>
-      <c r="L31" s="69">
+      <c r="L31" s="92">
         <v>0.25</v>
       </c>
-      <c r="M31" s="72">
+      <c r="M31" s="95">
         <v>0.22222222222222221</v>
       </c>
-      <c r="N31" s="69"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63">
+      <c r="N31" s="92"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86">
         <v>0.15789473684210531</v>
       </c>
-      <c r="Q31" s="63">
+      <c r="Q31" s="86">
         <v>0.14224137931034481</v>
       </c>
-      <c r="R31" s="63">
+      <c r="R31" s="86">
         <v>0.18072289156626509</v>
       </c>
-      <c r="S31" s="63">
+      <c r="S31" s="86">
         <v>0.13836477987421381</v>
       </c>
-      <c r="T31" s="63"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63">
+      <c r="T31" s="86"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="Y31" s="63">
+      <c r="Y31" s="86">
         <v>0.15053763440860221</v>
       </c>
-      <c r="Z31" s="63">
+      <c r="Z31" s="86">
         <v>0.1234567901234568</v>
       </c>
-      <c r="AA31" s="63">
+      <c r="AA31" s="86">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="64"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="87"/>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="84"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="69">
+      <c r="F32" s="92">
         <v>0.41607898448519037</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="95">
         <v>0.39087947882736163</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="92">
         <v>0.37062937062937062</v>
       </c>
-      <c r="I32" s="72">
+      <c r="I32" s="95">
         <v>0.35245901639344263</v>
       </c>
-      <c r="J32" s="69">
+      <c r="J32" s="92">
         <v>0.51236749116607772</v>
       </c>
-      <c r="K32" s="72">
+      <c r="K32" s="95">
         <v>0.5</v>
       </c>
-      <c r="L32" s="69">
+      <c r="L32" s="92">
         <v>0.31428571428571428</v>
       </c>
-      <c r="M32" s="72">
+      <c r="M32" s="95">
         <v>0.25396825396825401</v>
       </c>
-      <c r="N32" s="69"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63">
+      <c r="N32" s="92"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86">
         <v>0.32236842105263158</v>
       </c>
-      <c r="Q32" s="63">
+      <c r="Q32" s="86">
         <v>0.45258620689655171</v>
       </c>
-      <c r="R32" s="63">
+      <c r="R32" s="86">
         <v>0.42168674698795178</v>
       </c>
-      <c r="S32" s="63">
+      <c r="S32" s="86">
         <v>0.44654088050314472</v>
       </c>
-      <c r="T32" s="63"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63">
+      <c r="T32" s="86"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86">
         <v>0.44155844155844148</v>
       </c>
-      <c r="Y32" s="63">
+      <c r="Y32" s="86">
         <v>0.41935483870967738</v>
       </c>
-      <c r="Z32" s="63">
+      <c r="Z32" s="86">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AA32" s="63">
+      <c r="AA32" s="86">
         <v>0.35714285714285721</v>
       </c>
-      <c r="AB32" s="63"/>
-      <c r="AC32" s="64"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="87"/>
     </row>
     <row r="33" spans="1:29">
-      <c r="A33" s="84"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="10" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="69">
+      <c r="F33" s="92">
         <v>6.9111424541607902E-2</v>
       </c>
-      <c r="G33" s="72">
+      <c r="G33" s="95">
         <v>7.4918566775244305E-2</v>
       </c>
-      <c r="H33" s="69">
+      <c r="H33" s="92">
         <v>5.5944055944055937E-2</v>
       </c>
-      <c r="I33" s="72">
+      <c r="I33" s="95">
         <v>5.737704918032787E-2</v>
       </c>
-      <c r="J33" s="69">
+      <c r="J33" s="92">
         <v>7.4204946996466431E-2</v>
       </c>
-      <c r="K33" s="72">
+      <c r="K33" s="95">
         <v>8.1967213114754092E-2</v>
       </c>
-      <c r="L33" s="69">
+      <c r="L33" s="92">
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="M33" s="72">
+      <c r="M33" s="95">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="N33" s="69"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63">
+      <c r="N33" s="92"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86">
         <v>5.921052631578947E-2</v>
       </c>
-      <c r="Q33" s="63">
+      <c r="Q33" s="86">
         <v>7.3275862068965511E-2</v>
       </c>
-      <c r="R33" s="63">
+      <c r="R33" s="86">
         <v>9.036144578313253E-2</v>
       </c>
-      <c r="S33" s="63">
+      <c r="S33" s="86">
         <v>5.0314465408805027E-2</v>
       </c>
-      <c r="T33" s="63"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63">
+      <c r="T33" s="86"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="Y33" s="63">
+      <c r="Y33" s="86">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="Z33" s="63">
+      <c r="Z33" s="86">
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="AA33" s="63">
+      <c r="AA33" s="86">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="64"/>
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="87"/>
     </row>
     <row r="34" spans="1:29">
-      <c r="A34" s="84"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="10" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="69">
+      <c r="F34" s="92">
         <v>4.2313117066290554E-3</v>
       </c>
-      <c r="G34" s="72">
-        <v>0</v>
-      </c>
-      <c r="H34" s="69">
-        <v>0</v>
-      </c>
-      <c r="I34" s="72">
-        <v>0</v>
-      </c>
-      <c r="J34" s="69">
-        <v>0</v>
-      </c>
-      <c r="K34" s="72">
-        <v>0</v>
-      </c>
-      <c r="L34" s="69">
+      <c r="G34" s="95">
+        <v>0</v>
+      </c>
+      <c r="H34" s="92">
+        <v>0</v>
+      </c>
+      <c r="I34" s="95">
+        <v>0</v>
+      </c>
+      <c r="J34" s="92">
+        <v>0</v>
+      </c>
+      <c r="K34" s="95">
+        <v>0</v>
+      </c>
+      <c r="L34" s="92">
         <v>2.1428571428571429E-2</v>
       </c>
-      <c r="M34" s="72">
-        <v>0</v>
-      </c>
-      <c r="N34" s="69"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="63">
+      <c r="M34" s="95">
+        <v>0</v>
+      </c>
+      <c r="N34" s="92"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="86">
         <v>4.3103448275862068E-3</v>
       </c>
-      <c r="R34" s="63">
+      <c r="R34" s="86">
         <v>6.024096385542169E-3</v>
       </c>
-      <c r="S34" s="63">
+      <c r="S34" s="86">
         <v>6.2893081761006293E-3</v>
       </c>
-      <c r="T34" s="63"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="64"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="86"/>
+      <c r="AC34" s="87"/>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="92"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="70">
-        <v>0</v>
-      </c>
-      <c r="G35" s="73">
-        <v>0</v>
-      </c>
-      <c r="H35" s="70">
-        <v>0</v>
-      </c>
-      <c r="I35" s="73">
-        <v>0</v>
-      </c>
-      <c r="J35" s="70">
-        <v>0</v>
-      </c>
-      <c r="K35" s="73">
-        <v>0</v>
-      </c>
-      <c r="L35" s="70">
-        <v>0</v>
-      </c>
-      <c r="M35" s="73">
-        <v>0</v>
-      </c>
-      <c r="N35" s="70"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="65">
-        <v>0</v>
-      </c>
-      <c r="R35" s="65">
-        <v>0</v>
-      </c>
-      <c r="S35" s="65">
-        <v>0</v>
-      </c>
-      <c r="T35" s="65"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="70"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="65">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="66"/>
+      <c r="F35" s="93">
+        <v>0</v>
+      </c>
+      <c r="G35" s="96">
+        <v>0</v>
+      </c>
+      <c r="H35" s="93">
+        <v>0</v>
+      </c>
+      <c r="I35" s="96">
+        <v>0</v>
+      </c>
+      <c r="J35" s="93">
+        <v>0</v>
+      </c>
+      <c r="K35" s="96">
+        <v>0</v>
+      </c>
+      <c r="L35" s="93">
+        <v>0</v>
+      </c>
+      <c r="M35" s="96">
+        <v>0</v>
+      </c>
+      <c r="N35" s="93"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="88">
+        <v>0</v>
+      </c>
+      <c r="R35" s="88">
+        <v>0</v>
+      </c>
+      <c r="S35" s="88">
+        <v>0</v>
+      </c>
+      <c r="T35" s="88"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="89"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="58">
         <v>707</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="66">
         <v>306</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="58">
         <v>285</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="66">
         <v>122</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="58">
         <v>283</v>
       </c>
-      <c r="K36" s="52">
+      <c r="K36" s="66">
         <v>122</v>
       </c>
-      <c r="L36" s="44">
+      <c r="L36" s="58">
         <v>139</v>
       </c>
-      <c r="M36" s="52">
+      <c r="M36" s="66">
         <v>62</v>
       </c>
-      <c r="N36" s="44">
+      <c r="N36" s="58">
         <v>0</v>
       </c>
       <c r="O36" s="3">
@@ -7619,10 +7616,10 @@
       <c r="T36" s="3">
         <v>0</v>
       </c>
-      <c r="U36" s="52">
-        <v>0</v>
-      </c>
-      <c r="V36" s="44">
+      <c r="U36" s="66">
+        <v>0</v>
+      </c>
+      <c r="V36" s="58">
         <v>0</v>
       </c>
       <c r="W36" s="3">
@@ -7648,1053 +7645,1042 @@
       </c>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="84"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="69">
+      <c r="F37" s="92">
         <v>1.414427157001414E-3</v>
       </c>
-      <c r="G37" s="72">
-        <v>0</v>
-      </c>
-      <c r="H37" s="69">
+      <c r="G37" s="95">
+        <v>0</v>
+      </c>
+      <c r="H37" s="92">
         <v>3.508771929824561E-3</v>
       </c>
-      <c r="I37" s="72">
-        <v>0</v>
-      </c>
-      <c r="J37" s="69">
-        <v>0</v>
-      </c>
-      <c r="K37" s="72">
-        <v>0</v>
-      </c>
-      <c r="L37" s="69">
-        <v>0</v>
-      </c>
-      <c r="M37" s="72">
-        <v>0</v>
-      </c>
-      <c r="N37" s="69"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="63">
+      <c r="I37" s="95">
+        <v>0</v>
+      </c>
+      <c r="J37" s="92">
+        <v>0</v>
+      </c>
+      <c r="K37" s="95">
+        <v>0</v>
+      </c>
+      <c r="L37" s="92">
+        <v>0</v>
+      </c>
+      <c r="M37" s="95">
+        <v>0</v>
+      </c>
+      <c r="N37" s="92"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="86">
         <v>4.3478260869565218E-3</v>
       </c>
-      <c r="R37" s="63">
-        <v>0</v>
-      </c>
-      <c r="S37" s="63">
-        <v>0</v>
-      </c>
-      <c r="T37" s="63"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="63"/>
-      <c r="AC37" s="64"/>
+      <c r="R37" s="86">
+        <v>0</v>
+      </c>
+      <c r="S37" s="86">
+        <v>0</v>
+      </c>
+      <c r="T37" s="86"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="86"/>
+      <c r="AC37" s="87"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="84"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="10" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="69">
+      <c r="F38" s="92">
         <v>1.414427157001414E-3</v>
       </c>
-      <c r="G38" s="72">
-        <v>0</v>
-      </c>
-      <c r="H38" s="69">
+      <c r="G38" s="95">
+        <v>0</v>
+      </c>
+      <c r="H38" s="92">
         <v>3.508771929824561E-3</v>
       </c>
-      <c r="I38" s="72">
-        <v>0</v>
-      </c>
-      <c r="J38" s="69">
-        <v>0</v>
-      </c>
-      <c r="K38" s="72">
-        <v>0</v>
-      </c>
-      <c r="L38" s="69">
-        <v>0</v>
-      </c>
-      <c r="M38" s="72">
-        <v>0</v>
-      </c>
-      <c r="N38" s="69"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="63">
-        <v>0</v>
-      </c>
-      <c r="R38" s="63">
+      <c r="I38" s="95">
+        <v>0</v>
+      </c>
+      <c r="J38" s="92">
+        <v>0</v>
+      </c>
+      <c r="K38" s="95">
+        <v>0</v>
+      </c>
+      <c r="L38" s="92">
+        <v>0</v>
+      </c>
+      <c r="M38" s="95">
+        <v>0</v>
+      </c>
+      <c r="N38" s="92"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="86">
+        <v>0</v>
+      </c>
+      <c r="R38" s="86">
         <v>6.024096385542169E-3</v>
       </c>
-      <c r="S38" s="63">
-        <v>0</v>
-      </c>
-      <c r="T38" s="63"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="64"/>
+      <c r="S38" s="86">
+        <v>0</v>
+      </c>
+      <c r="T38" s="86"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="86"/>
+      <c r="X38" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="86"/>
+      <c r="AC38" s="87"/>
     </row>
     <row r="39" spans="1:29">
-      <c r="A39" s="84"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="10" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="69">
-        <v>0</v>
-      </c>
-      <c r="G39" s="72">
-        <v>0</v>
-      </c>
-      <c r="H39" s="69">
-        <v>0</v>
-      </c>
-      <c r="I39" s="72">
-        <v>0</v>
-      </c>
-      <c r="J39" s="69">
-        <v>0</v>
-      </c>
-      <c r="K39" s="72">
-        <v>0</v>
-      </c>
-      <c r="L39" s="69">
-        <v>0</v>
-      </c>
-      <c r="M39" s="72">
-        <v>0</v>
-      </c>
-      <c r="N39" s="69"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="63">
-        <v>0</v>
-      </c>
-      <c r="R39" s="63">
-        <v>0</v>
-      </c>
-      <c r="S39" s="63">
-        <v>0</v>
-      </c>
-      <c r="T39" s="63"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="64"/>
+      <c r="F39" s="92">
+        <v>0</v>
+      </c>
+      <c r="G39" s="95">
+        <v>0</v>
+      </c>
+      <c r="H39" s="92">
+        <v>0</v>
+      </c>
+      <c r="I39" s="95">
+        <v>0</v>
+      </c>
+      <c r="J39" s="92">
+        <v>0</v>
+      </c>
+      <c r="K39" s="95">
+        <v>0</v>
+      </c>
+      <c r="L39" s="92">
+        <v>0</v>
+      </c>
+      <c r="M39" s="95">
+        <v>0</v>
+      </c>
+      <c r="N39" s="92"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="86">
+        <v>0</v>
+      </c>
+      <c r="R39" s="86">
+        <v>0</v>
+      </c>
+      <c r="S39" s="86">
+        <v>0</v>
+      </c>
+      <c r="T39" s="86"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="92"/>
+      <c r="W39" s="86"/>
+      <c r="X39" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="86"/>
+      <c r="AC39" s="87"/>
     </row>
     <row r="40" spans="1:29">
-      <c r="A40" s="84"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="10" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="69">
+      <c r="F40" s="92">
         <v>1.414427157001414E-3</v>
       </c>
-      <c r="G40" s="72">
-        <v>0</v>
-      </c>
-      <c r="H40" s="69">
-        <v>0</v>
-      </c>
-      <c r="I40" s="72">
-        <v>0</v>
-      </c>
-      <c r="J40" s="69">
-        <v>0</v>
-      </c>
-      <c r="K40" s="72">
-        <v>0</v>
-      </c>
-      <c r="L40" s="69">
+      <c r="G40" s="95">
+        <v>0</v>
+      </c>
+      <c r="H40" s="92">
+        <v>0</v>
+      </c>
+      <c r="I40" s="95">
+        <v>0</v>
+      </c>
+      <c r="J40" s="92">
+        <v>0</v>
+      </c>
+      <c r="K40" s="95">
+        <v>0</v>
+      </c>
+      <c r="L40" s="92">
         <v>7.1942446043165471E-3</v>
       </c>
-      <c r="M40" s="72">
-        <v>0</v>
-      </c>
-      <c r="N40" s="69"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="63">
-        <v>0</v>
-      </c>
-      <c r="R40" s="63">
+      <c r="M40" s="95">
+        <v>0</v>
+      </c>
+      <c r="N40" s="92"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="86">
+        <v>0</v>
+      </c>
+      <c r="R40" s="86">
         <v>6.024096385542169E-3</v>
       </c>
-      <c r="S40" s="63">
-        <v>0</v>
-      </c>
-      <c r="T40" s="63"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="69"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="63"/>
-      <c r="AC40" s="64"/>
+      <c r="S40" s="86">
+        <v>0</v>
+      </c>
+      <c r="T40" s="86"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="87"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="84"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="10" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="69">
+      <c r="F41" s="92">
         <v>7.0721357850070717E-3</v>
       </c>
-      <c r="G41" s="72">
+      <c r="G41" s="95">
         <v>3.26797385620915E-3</v>
       </c>
-      <c r="H41" s="69">
+      <c r="H41" s="92">
         <v>3.508771929824561E-3</v>
       </c>
-      <c r="I41" s="72">
-        <v>0</v>
-      </c>
-      <c r="J41" s="69">
-        <v>0</v>
-      </c>
-      <c r="K41" s="72">
-        <v>0</v>
-      </c>
-      <c r="L41" s="69">
+      <c r="I41" s="95">
+        <v>0</v>
+      </c>
+      <c r="J41" s="92">
+        <v>0</v>
+      </c>
+      <c r="K41" s="95">
+        <v>0</v>
+      </c>
+      <c r="L41" s="92">
         <v>2.8776978417266189E-2</v>
       </c>
-      <c r="M41" s="72">
+      <c r="M41" s="95">
         <v>1.6129032258064519E-2</v>
       </c>
-      <c r="N41" s="69"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63">
+      <c r="N41" s="92"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86">
         <v>6.5789473684210523E-3</v>
       </c>
-      <c r="Q41" s="63">
+      <c r="Q41" s="86">
         <v>1.3043478260869559E-2</v>
       </c>
-      <c r="R41" s="63">
+      <c r="R41" s="86">
         <v>6.024096385542169E-3</v>
       </c>
-      <c r="S41" s="63">
-        <v>0</v>
-      </c>
-      <c r="T41" s="63"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="63">
+      <c r="S41" s="86">
+        <v>0</v>
+      </c>
+      <c r="T41" s="86"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="92"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="86">
         <v>1.234567901234568E-2</v>
       </c>
-      <c r="AA41" s="63">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="64"/>
+      <c r="AA41" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="86"/>
+      <c r="AC41" s="87"/>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="84"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="10" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="69">
+      <c r="F42" s="92">
         <v>1.272984441301273E-2</v>
       </c>
-      <c r="G42" s="72">
+      <c r="G42" s="95">
         <v>1.30718954248366E-2</v>
       </c>
-      <c r="H42" s="69">
+      <c r="H42" s="92">
         <v>1.4035087719298249E-2</v>
       </c>
-      <c r="I42" s="72">
+      <c r="I42" s="95">
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="J42" s="69">
+      <c r="J42" s="92">
         <v>1.0600706713780919E-2</v>
       </c>
-      <c r="K42" s="72">
+      <c r="K42" s="95">
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="L42" s="69">
+      <c r="L42" s="92">
         <v>1.4388489208633091E-2</v>
       </c>
-      <c r="M42" s="72">
+      <c r="M42" s="95">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="N42" s="69"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63">
+      <c r="N42" s="92"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86">
         <v>1.973684210526316E-2</v>
       </c>
-      <c r="Q42" s="63">
+      <c r="Q42" s="86">
         <v>8.6956521739130436E-3</v>
       </c>
-      <c r="R42" s="63">
+      <c r="R42" s="86">
         <v>1.8072289156626509E-2</v>
       </c>
-      <c r="S42" s="63">
+      <c r="S42" s="86">
         <v>6.2893081761006293E-3</v>
       </c>
-      <c r="T42" s="63"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="63">
+      <c r="T42" s="86"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="86"/>
+      <c r="X42" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="86">
         <v>1.075268817204301E-2</v>
       </c>
-      <c r="Z42" s="63">
+      <c r="Z42" s="86">
         <v>1.234567901234568E-2</v>
       </c>
-      <c r="AA42" s="63">
+      <c r="AA42" s="86">
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="AB42" s="63"/>
-      <c r="AC42" s="64"/>
+      <c r="AB42" s="86"/>
+      <c r="AC42" s="87"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="84"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="10" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="69">
+      <c r="F43" s="92">
         <v>3.2531824611032531E-2</v>
       </c>
-      <c r="G43" s="72">
+      <c r="G43" s="95">
         <v>2.61437908496732E-2</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H43" s="92">
         <v>2.456140350877193E-2</v>
       </c>
-      <c r="I43" s="72">
+      <c r="I43" s="95">
         <v>2.4590163934426229E-2</v>
       </c>
-      <c r="J43" s="69">
+      <c r="J43" s="92">
         <v>2.1201413427561839E-2</v>
       </c>
-      <c r="K43" s="72">
+      <c r="K43" s="95">
         <v>4.0983606557377053E-2</v>
       </c>
-      <c r="L43" s="69">
+      <c r="L43" s="92">
         <v>7.1942446043165464E-2</v>
       </c>
-      <c r="M43" s="72">
-        <v>0</v>
-      </c>
-      <c r="N43" s="69"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63">
+      <c r="M43" s="95">
+        <v>0</v>
+      </c>
+      <c r="N43" s="92"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86">
         <v>3.2894736842105261E-2</v>
       </c>
-      <c r="Q43" s="63">
+      <c r="Q43" s="86">
         <v>3.9130434782608699E-2</v>
       </c>
-      <c r="R43" s="63">
+      <c r="R43" s="86">
         <v>2.4096385542168679E-2</v>
       </c>
-      <c r="S43" s="63">
+      <c r="S43" s="86">
         <v>3.1446540880503138E-2</v>
       </c>
-      <c r="T43" s="63"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="63">
+      <c r="T43" s="86"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="92"/>
+      <c r="W43" s="86"/>
+      <c r="X43" s="86">
         <v>5.1948051948051951E-2</v>
       </c>
-      <c r="Y43" s="63">
+      <c r="Y43" s="86">
         <v>2.150537634408602E-2</v>
       </c>
-      <c r="Z43" s="63">
+      <c r="Z43" s="86">
         <v>1.234567901234568E-2</v>
       </c>
-      <c r="AA43" s="63">
+      <c r="AA43" s="86">
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="AB43" s="63"/>
-      <c r="AC43" s="64"/>
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="87"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="84"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="10" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="69">
+      <c r="F44" s="92">
         <v>9.9009900990099015E-2</v>
       </c>
-      <c r="G44" s="72">
+      <c r="G44" s="95">
         <v>0.1437908496732026</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H44" s="92">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I44" s="72">
+      <c r="I44" s="95">
         <v>0.13934426229508201</v>
       </c>
-      <c r="J44" s="69">
+      <c r="J44" s="92">
         <v>9.8939929328621903E-2</v>
       </c>
-      <c r="K44" s="72">
+      <c r="K44" s="95">
         <v>0.1147540983606557</v>
       </c>
-      <c r="L44" s="69">
+      <c r="L44" s="92">
         <v>0.1654676258992806</v>
       </c>
-      <c r="M44" s="72">
+      <c r="M44" s="95">
         <v>0.20967741935483869</v>
       </c>
-      <c r="N44" s="69"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63">
+      <c r="N44" s="92"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86">
         <v>0.1184210526315789</v>
       </c>
-      <c r="Q44" s="63">
+      <c r="Q44" s="86">
         <v>0.108695652173913</v>
       </c>
-      <c r="R44" s="63">
+      <c r="R44" s="86">
         <v>6.6265060240963861E-2</v>
       </c>
-      <c r="S44" s="63">
+      <c r="S44" s="86">
         <v>0.1006289308176101</v>
       </c>
-      <c r="T44" s="63"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="69"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="63">
+      <c r="T44" s="86"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="86"/>
+      <c r="X44" s="86">
         <v>0.14285714285714279</v>
       </c>
-      <c r="Y44" s="63">
+      <c r="Y44" s="86">
         <v>0.1290322580645161</v>
       </c>
-      <c r="Z44" s="63">
+      <c r="Z44" s="86">
         <v>0.14814814814814811</v>
       </c>
-      <c r="AA44" s="63">
+      <c r="AA44" s="86">
         <v>0.16363636363636361</v>
       </c>
-      <c r="AB44" s="63"/>
-      <c r="AC44" s="64"/>
+      <c r="AB44" s="86"/>
+      <c r="AC44" s="87"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="84"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="10" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F45" s="92">
         <v>0.25601131541725602</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="95">
         <v>0.29738562091503268</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H45" s="92">
         <v>0.21403508771929819</v>
       </c>
-      <c r="I45" s="72">
+      <c r="I45" s="95">
         <v>0.27868852459016391</v>
       </c>
-      <c r="J45" s="69">
+      <c r="J45" s="92">
         <v>0.28621908127208479</v>
       </c>
-      <c r="K45" s="72">
+      <c r="K45" s="95">
         <v>0.30327868852459022</v>
       </c>
-      <c r="L45" s="69">
+      <c r="L45" s="92">
         <v>0.2805755395683453</v>
       </c>
-      <c r="M45" s="72">
+      <c r="M45" s="95">
         <v>0.32258064516129031</v>
       </c>
-      <c r="N45" s="69"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63">
+      <c r="N45" s="92"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86">
         <v>0.32236842105263158</v>
       </c>
-      <c r="Q45" s="63">
+      <c r="Q45" s="86">
         <v>0.27391304347826079</v>
       </c>
-      <c r="R45" s="63">
+      <c r="R45" s="86">
         <v>0.2048192771084337</v>
       </c>
-      <c r="S45" s="63">
+      <c r="S45" s="86">
         <v>0.22012578616352199</v>
       </c>
-      <c r="T45" s="63"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="69"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="63">
+      <c r="T45" s="86"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="86"/>
+      <c r="X45" s="86">
         <v>0.38961038961038957</v>
       </c>
-      <c r="Y45" s="63">
+      <c r="Y45" s="86">
         <v>0.34408602150537643</v>
       </c>
-      <c r="Z45" s="63">
+      <c r="Z45" s="86">
         <v>0.1851851851851852</v>
       </c>
-      <c r="AA45" s="63">
+      <c r="AA45" s="86">
         <v>0.25454545454545452</v>
       </c>
-      <c r="AB45" s="63"/>
-      <c r="AC45" s="64"/>
+      <c r="AB45" s="86"/>
+      <c r="AC45" s="87"/>
     </row>
     <row r="46" spans="1:29">
-      <c r="A46" s="84"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="10" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="69">
+      <c r="F46" s="92">
         <v>0.31400282885431402</v>
       </c>
-      <c r="G46" s="72">
+      <c r="G46" s="95">
         <v>0.30718954248366009</v>
       </c>
-      <c r="H46" s="69">
+      <c r="H46" s="92">
         <v>0.31578947368421051</v>
       </c>
-      <c r="I46" s="72">
+      <c r="I46" s="95">
         <v>0.34426229508196721</v>
       </c>
-      <c r="J46" s="69">
+      <c r="J46" s="92">
         <v>0.35689045936395758</v>
       </c>
-      <c r="K46" s="72">
+      <c r="K46" s="95">
         <v>0.30327868852459022</v>
       </c>
-      <c r="L46" s="69">
+      <c r="L46" s="92">
         <v>0.22302158273381301</v>
       </c>
-      <c r="M46" s="72">
+      <c r="M46" s="95">
         <v>0.24193548387096769</v>
       </c>
-      <c r="N46" s="69"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63">
+      <c r="N46" s="92"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86">
         <v>0.33552631578947367</v>
       </c>
-      <c r="Q46" s="63">
+      <c r="Q46" s="86">
         <v>0.2565217391304348</v>
       </c>
-      <c r="R46" s="63">
+      <c r="R46" s="86">
         <v>0.37951807228915663</v>
       </c>
-      <c r="S46" s="63">
+      <c r="S46" s="86">
         <v>0.3081761006289308</v>
       </c>
-      <c r="T46" s="63"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="63">
+      <c r="T46" s="86"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="86"/>
+      <c r="X46" s="86">
         <v>0.27272727272727271</v>
       </c>
-      <c r="Y46" s="63">
+      <c r="Y46" s="86">
         <v>0.30107526881720431</v>
       </c>
-      <c r="Z46" s="63">
+      <c r="Z46" s="86">
         <v>0.34567901234567899</v>
       </c>
-      <c r="AA46" s="63">
+      <c r="AA46" s="86">
         <v>0.30909090909090908</v>
       </c>
-      <c r="AB46" s="63"/>
-      <c r="AC46" s="64"/>
+      <c r="AB46" s="86"/>
+      <c r="AC46" s="87"/>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="84"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="10" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="69">
+      <c r="F47" s="92">
         <v>0.27439886845827438</v>
       </c>
-      <c r="G47" s="72">
+      <c r="G47" s="95">
         <v>0.2091503267973856</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="92">
         <v>0.35438596491228069</v>
       </c>
-      <c r="I47" s="72">
+      <c r="I47" s="95">
         <v>0.20491803278688531</v>
       </c>
-      <c r="J47" s="69">
+      <c r="J47" s="92">
         <v>0.2261484098939929</v>
       </c>
-      <c r="K47" s="72">
+      <c r="K47" s="95">
         <v>0.22950819672131151</v>
       </c>
-      <c r="L47" s="69">
+      <c r="L47" s="92">
         <v>0.20863309352517989</v>
       </c>
-      <c r="M47" s="72">
+      <c r="M47" s="95">
         <v>0.17741935483870969</v>
       </c>
-      <c r="N47" s="69"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63">
+      <c r="N47" s="92"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86">
         <v>0.1644736842105263</v>
       </c>
-      <c r="Q47" s="63">
+      <c r="Q47" s="86">
         <v>0.29565217391304349</v>
       </c>
-      <c r="R47" s="63">
+      <c r="R47" s="86">
         <v>0.28915662650602408</v>
       </c>
-      <c r="S47" s="63">
+      <c r="S47" s="86">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T47" s="63"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="63"/>
-      <c r="X47" s="63">
+      <c r="T47" s="86"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="86">
         <v>0.14285714285714279</v>
       </c>
-      <c r="Y47" s="63">
+      <c r="Y47" s="86">
         <v>0.19354838709677419</v>
       </c>
-      <c r="Z47" s="63">
+      <c r="Z47" s="86">
         <v>0.2839506172839506</v>
       </c>
-      <c r="AA47" s="63">
+      <c r="AA47" s="86">
         <v>0.2181818181818182</v>
       </c>
-      <c r="AB47" s="63"/>
-      <c r="AC47" s="64"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="87"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="84"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="12" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="71">
+      <c r="F48" s="94">
         <v>0.5884016973125884</v>
       </c>
-      <c r="G48" s="74">
+      <c r="G48" s="97">
         <v>0.5163398692810458</v>
       </c>
-      <c r="H48" s="71">
+      <c r="H48" s="94">
         <v>0.6701754385964912</v>
       </c>
-      <c r="I48" s="74">
+      <c r="I48" s="97">
         <v>0.54918032786885251</v>
       </c>
-      <c r="J48" s="71">
+      <c r="J48" s="94">
         <v>0.58303886925795056</v>
       </c>
-      <c r="K48" s="74">
+      <c r="K48" s="97">
         <v>0.53278688524590168</v>
       </c>
-      <c r="L48" s="71">
+      <c r="L48" s="94">
         <v>0.43165467625899279</v>
       </c>
-      <c r="M48" s="74">
+      <c r="M48" s="97">
         <v>0.41935483870967738</v>
       </c>
-      <c r="N48" s="71"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67">
+      <c r="N48" s="94"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90">
         <v>0.5</v>
       </c>
-      <c r="Q48" s="67">
+      <c r="Q48" s="90">
         <v>0.55217391304347829</v>
       </c>
-      <c r="R48" s="67">
+      <c r="R48" s="90">
         <v>0.66867469879518071</v>
       </c>
-      <c r="S48" s="67">
+      <c r="S48" s="90">
         <v>0.64150943396226412</v>
       </c>
-      <c r="T48" s="67"/>
-      <c r="U48" s="74"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67">
+      <c r="T48" s="90"/>
+      <c r="U48" s="97"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="90"/>
+      <c r="X48" s="90">
         <v>0.41558441558441561</v>
       </c>
-      <c r="Y48" s="67">
+      <c r="Y48" s="90">
         <v>0.4946236559139785</v>
       </c>
-      <c r="Z48" s="67">
+      <c r="Z48" s="90">
         <v>0.62962962962962965</v>
       </c>
-      <c r="AA48" s="67">
+      <c r="AA48" s="90">
         <v>0.52727272727272723</v>
       </c>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="68"/>
+      <c r="AB48" s="90"/>
+      <c r="AC48" s="91"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="84"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="12" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="71">
+      <c r="F49" s="94">
         <v>2.828854314002829E-3</v>
       </c>
-      <c r="G49" s="74">
-        <v>0</v>
-      </c>
-      <c r="H49" s="71">
+      <c r="G49" s="97">
+        <v>0</v>
+      </c>
+      <c r="H49" s="94">
         <v>7.0175438596491229E-3</v>
       </c>
-      <c r="I49" s="74">
-        <v>0</v>
-      </c>
-      <c r="J49" s="71">
-        <v>0</v>
-      </c>
-      <c r="K49" s="74">
-        <v>0</v>
-      </c>
-      <c r="L49" s="71">
-        <v>0</v>
-      </c>
-      <c r="M49" s="74">
-        <v>0</v>
-      </c>
-      <c r="N49" s="71"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="67">
+      <c r="I49" s="97">
+        <v>0</v>
+      </c>
+      <c r="J49" s="94">
+        <v>0</v>
+      </c>
+      <c r="K49" s="97">
+        <v>0</v>
+      </c>
+      <c r="L49" s="94">
+        <v>0</v>
+      </c>
+      <c r="M49" s="97">
+        <v>0</v>
+      </c>
+      <c r="N49" s="94"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="90">
         <v>4.3478260869565218E-3</v>
       </c>
-      <c r="R49" s="67">
+      <c r="R49" s="90">
         <v>6.024096385542169E-3</v>
       </c>
-      <c r="S49" s="67">
-        <v>0</v>
-      </c>
-      <c r="T49" s="67"/>
-      <c r="U49" s="74"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="67"/>
-      <c r="AC49" s="68"/>
+      <c r="S49" s="90">
+        <v>0</v>
+      </c>
+      <c r="T49" s="90"/>
+      <c r="U49" s="97"/>
+      <c r="V49" s="94"/>
+      <c r="W49" s="90"/>
+      <c r="X49" s="90">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="90">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="90">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="90">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="90"/>
+      <c r="AC49" s="91"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="85"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="15" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="47">
+      <c r="F50" s="61">
         <v>8.6039603960396036</v>
       </c>
-      <c r="G50" s="55">
+      <c r="G50" s="69">
         <v>8.477124183006536</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="61">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I50" s="55">
+      <c r="I50" s="69">
         <v>8.5409836065573774</v>
       </c>
-      <c r="J50" s="47">
+      <c r="J50" s="61">
         <v>8.6360424028268543</v>
       </c>
-      <c r="K50" s="55">
+      <c r="K50" s="69">
         <v>8.5409836065573774</v>
       </c>
-      <c r="L50" s="47">
+      <c r="L50" s="61">
         <v>8.1366906474820144</v>
       </c>
-      <c r="M50" s="55">
+      <c r="M50" s="69">
         <v>8.2258064516129039</v>
       </c>
-      <c r="N50" s="47"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16">
+      <c r="N50" s="61"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24">
         <v>8.3947368421052637</v>
       </c>
-      <c r="Q50" s="16">
+      <c r="Q50" s="24">
         <v>8.5478260869565226</v>
       </c>
-      <c r="R50" s="16">
+      <c r="R50" s="24">
         <v>8.69277108433735</v>
       </c>
-      <c r="S50" s="16">
+      <c r="S50" s="24">
         <v>8.7924528301886795</v>
       </c>
-      <c r="T50" s="16"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16">
+      <c r="T50" s="24"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24">
         <v>8.3116883116883109</v>
       </c>
-      <c r="Y50" s="16">
+      <c r="Y50" s="24">
         <v>8.4838709677419359</v>
       </c>
-      <c r="Z50" s="16">
+      <c r="Z50" s="24">
         <v>8.6543209876543212</v>
       </c>
-      <c r="AA50" s="16">
+      <c r="AA50" s="24">
         <v>8.4363636363636356</v>
       </c>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="17"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="25"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="86"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="19" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F51" s="65">
         <v>1.304334086495549</v>
       </c>
-      <c r="G51" s="59">
+      <c r="G51" s="73">
         <v>1.1570735687692519</v>
       </c>
-      <c r="H51" s="51">
+      <c r="H51" s="65">
         <v>1.357815146413895</v>
       </c>
-      <c r="I51" s="59">
+      <c r="I51" s="73">
         <v>1.092026253609321</v>
       </c>
-      <c r="J51" s="51">
+      <c r="J51" s="65">
         <v>1.067761573731453</v>
       </c>
-      <c r="K51" s="59">
+      <c r="K51" s="73">
         <v>1.1365275589667929</v>
       </c>
-      <c r="L51" s="51">
+      <c r="L51" s="65">
         <v>1.509397801259869</v>
       </c>
-      <c r="M51" s="59">
+      <c r="M51" s="73">
         <v>1.2984146050145431</v>
       </c>
-      <c r="N51" s="51"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20">
+      <c r="N51" s="65"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30">
         <v>1.174553006350239</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="Q51" s="30">
         <v>1.4064323737826581</v>
       </c>
-      <c r="R51" s="20">
+      <c r="R51" s="30">
         <v>1.391165470194631</v>
       </c>
-      <c r="S51" s="20">
+      <c r="S51" s="30">
         <v>1.1422577670146219</v>
       </c>
-      <c r="T51" s="20"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="51"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20">
+      <c r="T51" s="30"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="65"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30">
         <v>1.0545607748669119</v>
       </c>
-      <c r="Y51" s="20">
+      <c r="Y51" s="30">
         <v>1.079582278574998</v>
       </c>
-      <c r="Z51" s="20">
+      <c r="Z51" s="30">
         <v>1.2565875797886159</v>
       </c>
-      <c r="AA51" s="20">
+      <c r="AA51" s="30">
         <v>1.258506409931385</v>
       </c>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="21"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A36:A51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="A22:A35"/>
-    <mergeCell ref="B22:B35"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="N3:AC3"/>
     <mergeCell ref="N5:U5"/>
@@ -8705,10 +8691,21 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="V4:AC4"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="A22:A35"/>
+    <mergeCell ref="B22:B35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" location="'Content'!B3" display="Content" xr:uid="{914C5FE7-80D2-429C-B814-2F62290BB85C}"/>
+    <hyperlink ref="A3" location="'Content'!B3" display="Content" xr:uid="{483244F7-5313-49D5-883C-D928A8280A50}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
